--- a/Classics_Squad/2022/Spring_Classics_M.xlsx
+++ b/Classics_Squad/2022/Spring_Classics_M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75ca376656bd96ab/Documents/Velogames Ultimate Team/Classics_Squad/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="833" documentId="8_{48380F6D-8971-4F5F-99EA-E334BF96AAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6677FDAA-4760-4908-8034-50FF42337153}"/>
+  <xr:revisionPtr revIDLastSave="1049" documentId="8_{48380F6D-8971-4F5F-99EA-E334BF96AAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8382CB7A-8121-4128-8A32-3D5BF0F193C0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>Names</t>
   </si>
@@ -587,6 +587,21 @@
   </si>
   <si>
     <t>Kim Heiduk</t>
+  </si>
+  <si>
+    <t>Dylan Teuns</t>
+  </si>
+  <si>
+    <t>Sebastien Grignard</t>
+  </si>
+  <si>
+    <t>Stan Dewulf</t>
+  </si>
+  <si>
+    <t>Tom Bohli</t>
+  </si>
+  <si>
+    <t>Manuele Boaro</t>
   </si>
 </sst>
 </file>
@@ -1427,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O171"/>
+  <dimension ref="A1:O176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,56 +1502,62 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
       <c r="C2">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="H2">
+        <v>440</v>
       </c>
       <c r="O2">
         <f>SUM(C2:N2)</f>
-        <v>717</v>
+        <v>790</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="G3">
-        <v>110</v>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="O3">
         <f>SUM(C3:N3)</f>
-        <v>350</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1561,9 +1582,12 @@
       <c r="G4">
         <v>322</v>
       </c>
+      <c r="H4">
+        <v>580</v>
+      </c>
       <c r="O4">
         <f>SUM(C4:N4)</f>
-        <v>622</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1588,6 +1612,9 @@
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
       <c r="O5">
         <f>SUM(C5:N5)</f>
         <v>84</v>
@@ -1615,9 +1642,12 @@
       <c r="G6">
         <v>272</v>
       </c>
+      <c r="H6">
+        <v>210</v>
+      </c>
       <c r="O6">
         <f>SUM(C6:N6)</f>
-        <v>272</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1642,63 +1672,72 @@
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="H7">
+        <v>48</v>
+      </c>
       <c r="O7">
         <f>SUM(C7:N7)</f>
-        <v>182</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D8">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>288</v>
+        <v>176</v>
       </c>
       <c r="G8">
         <v>0</v>
+      </c>
+      <c r="H8">
+        <v>240</v>
       </c>
       <c r="O8">
         <f>SUM(C8:N8)</f>
-        <v>524</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E9">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="F9">
-        <v>176</v>
+        <v>288</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
       <c r="O9">
         <f>SUM(C9:N9)</f>
-        <v>431</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1723,9 +1762,12 @@
       <c r="G10">
         <v>0</v>
       </c>
+      <c r="H10">
+        <v>200</v>
+      </c>
       <c r="O10">
         <f>SUM(C10:N10)</f>
-        <v>260</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1750,9 +1792,12 @@
       <c r="G11">
         <v>75</v>
       </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
       <c r="O11">
         <f>SUM(C11:N11)</f>
-        <v>145</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1777,6 +1822,9 @@
       <c r="G12">
         <v>0</v>
       </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
       <c r="O12">
         <f>SUM(C12:N12)</f>
         <v>78</v>
@@ -1804,6 +1852,9 @@
       <c r="G13">
         <v>0</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="O13">
         <f>SUM(C13:N13)</f>
         <v>52</v>
@@ -1831,9 +1882,12 @@
       <c r="G14">
         <v>20</v>
       </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
       <c r="O14">
         <f>SUM(C14:N14)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1858,6 +1912,9 @@
       <c r="G15">
         <v>5</v>
       </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="O15">
         <f>SUM(C15:N15)</f>
         <v>5</v>
@@ -1885,9 +1942,12 @@
       <c r="G16">
         <v>0</v>
       </c>
+      <c r="H16">
+        <v>220</v>
+      </c>
       <c r="O16">
         <f>SUM(C16:N16)</f>
-        <v>746</v>
+        <v>966</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1912,36 +1972,42 @@
       <c r="G17">
         <v>0</v>
       </c>
+      <c r="H17">
+        <v>60</v>
+      </c>
       <c r="O17">
         <f>SUM(C17:N17)</f>
-        <v>736</v>
+        <v>796</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
       <c r="C18">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="F18">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>222</v>
+      </c>
+      <c r="H18">
+        <v>320</v>
       </c>
       <c r="O18">
         <f>SUM(C18:N18)</f>
-        <v>549</v>
+        <v>778</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1966,14 +2032,17 @@
       <c r="G19">
         <v>292</v>
       </c>
+      <c r="H19">
+        <v>120</v>
+      </c>
       <c r="O19">
         <f>SUM(C19:N19)</f>
-        <v>532</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -1985,49 +2054,55 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>236</v>
+        <v>166</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>222</v>
+        <v>12</v>
+      </c>
+      <c r="H20">
+        <v>470</v>
       </c>
       <c r="O20">
         <f>SUM(C20:N20)</f>
-        <v>458</v>
+        <v>648</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>10</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="D21">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="F21">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>0</v>
       </c>
       <c r="O21">
         <f>SUM(C21:N21)</f>
-        <v>400</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -2036,128 +2111,143 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>0</v>
       </c>
       <c r="O22">
         <f>SUM(C22:N22)</f>
-        <v>220</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>150</v>
       </c>
       <c r="O23">
         <f>SUM(C23:N23)</f>
-        <v>178</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24">
+        <v>120</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
         <v>30</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>136</v>
-      </c>
       <c r="G24">
         <v>0</v>
+      </c>
+      <c r="H24">
+        <v>66</v>
       </c>
       <c r="O24">
         <f>SUM(C24:N24)</f>
-        <v>166</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>0</v>
       </c>
       <c r="O25">
         <f>SUM(C25:N25)</f>
-        <v>155</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
+      </c>
+      <c r="H26">
+        <v>220</v>
       </c>
       <c r="O26">
         <f>SUM(C26:N26)</f>
-        <v>146</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2182,41 +2272,47 @@
       <c r="G27">
         <v>46</v>
       </c>
+      <c r="H27">
+        <v>60</v>
+      </c>
       <c r="O27">
         <f>SUM(C27:N27)</f>
-        <v>116</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D28">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>0</v>
       </c>
       <c r="O28">
         <f>SUM(C28:N28)</f>
-        <v>70</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -2225,25 +2321,28 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>0</v>
       </c>
       <c r="O29">
         <f>SUM(C29:N29)</f>
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -2252,112 +2351,124 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>0</v>
       </c>
       <c r="O30">
         <f>SUM(C30:N30)</f>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E31">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>0</v>
       </c>
       <c r="O31">
         <f>SUM(C31:N31)</f>
-        <v>698</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
       <c r="C32">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="F32">
-        <v>196</v>
+        <v>322</v>
       </c>
       <c r="G32">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
       </c>
       <c r="O32">
         <f>SUM(C32:N32)</f>
-        <v>466</v>
+        <v>698</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="B33">
         <v>8</v>
       </c>
       <c r="C33">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F33">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>360</v>
       </c>
       <c r="O33">
         <f>SUM(C33:N33)</f>
-        <v>446</v>
+        <v>648</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>8</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2366,68 +2477,77 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="G34">
-        <v>304</v>
+        <v>70</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
       </c>
       <c r="O34">
         <f>SUM(C34:N34)</f>
-        <v>304</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>8</v>
       </c>
       <c r="C35">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E35">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>0</v>
       </c>
       <c r="O35">
         <f>SUM(C35:N35)</f>
-        <v>289</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>8</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="G36">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>114</v>
       </c>
       <c r="O36">
         <f>SUM(C36:N36)</f>
-        <v>288</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2452,23 +2572,26 @@
       <c r="G37">
         <v>39</v>
       </c>
+      <c r="H37">
+        <v>72</v>
+      </c>
       <c r="O37">
         <f>SUM(C37:N37)</f>
-        <v>254</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="B38">
         <v>8</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2477,43 +2600,49 @@
         <v>0</v>
       </c>
       <c r="G38">
+        <v>304</v>
+      </c>
+      <c r="H38">
         <v>0</v>
       </c>
       <c r="O38">
         <f>SUM(C38:N38)</f>
-        <v>224</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>8</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
       </c>
       <c r="O39">
         <f>SUM(C39:N39)</f>
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -2522,34 +2651,37 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="G40">
+        <v>95</v>
+      </c>
+      <c r="H40">
         <v>0</v>
       </c>
       <c r="O40">
         <f>SUM(C40:N40)</f>
-        <v>180</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B41">
         <v>8</v>
       </c>
       <c r="C41">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2558,43 +2690,49 @@
         <v>0</v>
       </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>0</v>
       </c>
       <c r="O41">
         <f>SUM(C41:N41)</f>
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B42">
         <v>8</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D42">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>0</v>
       </c>
       <c r="O42">
         <f>SUM(C42:N42)</f>
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -2603,106 +2741,118 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F43">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>0</v>
       </c>
       <c r="O43">
         <f>SUM(C43:N43)</f>
-        <v>114</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B44">
         <v>8</v>
       </c>
       <c r="C44">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E44">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
+      </c>
+      <c r="H44">
+        <v>90</v>
       </c>
       <c r="O44">
         <f>SUM(C44:N44)</f>
-        <v>91</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="B45">
         <v>8</v>
       </c>
       <c r="C45">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="H45">
+        <v>60</v>
       </c>
       <c r="O45">
         <f>SUM(C45:N45)</f>
-        <v>90</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B46">
         <v>8</v>
       </c>
       <c r="C46">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>0</v>
       </c>
       <c r="O46">
         <f>SUM(C46:N46)</f>
-        <v>72</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -2714,76 +2864,85 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G47">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>78</v>
       </c>
       <c r="O47">
         <f>SUM(C47:N47)</f>
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <v>8</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F48">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
       </c>
       <c r="O48">
         <f>SUM(C48:N48)</f>
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="B49">
         <v>8</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>0</v>
       </c>
       <c r="O49">
         <f>SUM(C49:N49)</f>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B50">
         <v>8</v>
@@ -2798,25 +2957,28 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H50">
+        <v>12</v>
       </c>
       <c r="O50">
         <f>SUM(C50:N50)</f>
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B51">
         <v>8</v>
       </c>
       <c r="C51">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2825,19 +2987,22 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>0</v>
       </c>
       <c r="O51">
         <f>SUM(C51:N51)</f>
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -2846,31 +3011,34 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>0</v>
       </c>
       <c r="O52">
         <f>SUM(C52:N52)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="B53">
         <v>8</v>
       </c>
       <c r="C53">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2879,25 +3047,28 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>0</v>
       </c>
       <c r="O53">
         <f>SUM(C53:N53)</f>
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="B54">
         <v>8</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2906,25 +3077,28 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G54">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
       </c>
       <c r="O54">
         <f>SUM(C54:N54)</f>
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B55">
         <v>8</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2936,16 +3110,19 @@
         <v>0</v>
       </c>
       <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>0</v>
       </c>
       <c r="O55">
         <f>SUM(C55:N55)</f>
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B56">
         <v>8</v>
@@ -2960,25 +3137,28 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G56">
+        <v>40</v>
+      </c>
+      <c r="H56">
         <v>0</v>
       </c>
       <c r="O56">
         <f>SUM(C56:N56)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="B57">
         <v>8</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2990,22 +3170,25 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
       </c>
       <c r="O57">
         <f>SUM(C57:N57)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="B58">
         <v>8</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3017,23 +3200,26 @@
         <v>0</v>
       </c>
       <c r="G58">
+        <v>12</v>
+      </c>
+      <c r="H58">
         <v>0</v>
       </c>
       <c r="O58">
         <f>SUM(C58:N58)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59">
         <v>6</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
       <c r="D59">
         <v>0</v>
       </c>
@@ -3041,100 +3227,112 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>252</v>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
       </c>
       <c r="O59">
         <f>SUM(C59:N59)</f>
-        <v>288</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="H60">
+        <v>320</v>
       </c>
       <c r="O60">
         <f>SUM(C60:N60)</f>
-        <v>213</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
       <c r="C61">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G61">
+        <v>252</v>
+      </c>
+      <c r="H61">
         <v>0</v>
       </c>
       <c r="O61">
         <f>SUM(C61:N61)</f>
-        <v>193</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="B62">
         <v>6</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E62">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="H62">
+        <v>60</v>
       </c>
       <c r="O62">
         <f>SUM(C62:N62)</f>
-        <v>186</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -3143,52 +3341,58 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>40</v>
       </c>
       <c r="O63">
         <f>SUM(C63:N63)</f>
-        <v>184</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E64">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>0</v>
       </c>
       <c r="O64">
         <f>SUM(C64:N64)</f>
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -3197,25 +3401,28 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E65">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
         <v>24</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>0</v>
       </c>
       <c r="O65">
         <f>SUM(C65:N65)</f>
-        <v>149</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -3224,25 +3431,28 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
         <v>0</v>
       </c>
       <c r="O66">
         <f>SUM(C66:N66)</f>
-        <v>130</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -3251,25 +3461,28 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E67">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>60</v>
       </c>
       <c r="O67">
         <f>SUM(C67:N67)</f>
-        <v>117</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -3278,25 +3491,28 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G68">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
       </c>
       <c r="O68">
         <f>SUM(C68:N68)</f>
-        <v>102</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -3305,25 +3521,28 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E69">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>36</v>
+        <v>90</v>
+      </c>
+      <c r="H69">
+        <v>42</v>
       </c>
       <c r="O69">
         <f>SUM(C69:N69)</f>
-        <v>96</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -3332,25 +3551,28 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="H70">
+        <v>20</v>
       </c>
       <c r="O70">
         <f>SUM(C70:N70)</f>
-        <v>95</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -3359,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3369,42 +3591,48 @@
       </c>
       <c r="G71">
         <v>0</v>
+      </c>
+      <c r="H71">
+        <v>96</v>
       </c>
       <c r="O71">
         <f>SUM(C71:N71)</f>
-        <v>90</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B72">
         <v>6</v>
       </c>
       <c r="C72">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="E72">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
         <v>0</v>
       </c>
       <c r="O72">
         <f>SUM(C72:N72)</f>
-        <v>88</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -3413,25 +3641,28 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
+        <v>36</v>
+      </c>
+      <c r="H73">
         <v>0</v>
       </c>
       <c r="O73">
         <f>SUM(C73:N73)</f>
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -3440,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3449,16 +3680,19 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>60</v>
       </c>
       <c r="O74">
         <f>SUM(C74:N74)</f>
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -3467,52 +3701,58 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E75">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
         <v>0</v>
       </c>
       <c r="O75">
         <f>SUM(C75:N75)</f>
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B76">
         <v>6</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D76">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
         <v>0</v>
       </c>
       <c r="O76">
         <f>SUM(C76:N76)</f>
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -3521,25 +3761,28 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E77">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
         <v>0</v>
       </c>
       <c r="O77">
         <f>SUM(C77:N77)</f>
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -3551,58 +3794,64 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
+        <v>85</v>
+      </c>
+      <c r="H78">
         <v>0</v>
       </c>
       <c r="O78">
         <f>SUM(C78:N78)</f>
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="B79">
         <v>6</v>
       </c>
       <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
         <v>60</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
       <c r="F79">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
         <v>0</v>
       </c>
       <c r="O79">
         <f>SUM(C79:N79)</f>
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B80">
         <v>6</v>
       </c>
       <c r="C80">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3611,16 +3860,19 @@
         <v>0</v>
       </c>
       <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
         <v>0</v>
       </c>
       <c r="O80">
         <f>SUM(C80:N80)</f>
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -3632,22 +3884,25 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F81">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
         <v>0</v>
       </c>
       <c r="O81">
         <f>SUM(C81:N81)</f>
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -3659,22 +3914,25 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F82">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
         <v>0</v>
       </c>
       <c r="O82">
         <f>SUM(C82:N82)</f>
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -3686,28 +3944,31 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F83">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G83">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>20</v>
       </c>
       <c r="O83">
         <f>SUM(C83:N83)</f>
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B84">
         <v>6</v>
       </c>
       <c r="C84">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3719,22 +3980,25 @@
         <v>0</v>
       </c>
       <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
         <v>0</v>
       </c>
       <c r="O84">
         <f>SUM(C84:N84)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B85">
         <v>6</v>
       </c>
       <c r="C85">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3746,16 +4010,19 @@
         <v>0</v>
       </c>
       <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
         <v>0</v>
       </c>
       <c r="O85">
         <f>SUM(C85:N85)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -3764,25 +4031,28 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G86">
         <v>0</v>
+      </c>
+      <c r="H86">
+        <v>24</v>
       </c>
       <c r="O86">
         <f>SUM(C86:N86)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -3791,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3801,15 +4071,18 @@
       </c>
       <c r="G87">
         <v>0</v>
+      </c>
+      <c r="H87">
+        <v>60</v>
       </c>
       <c r="O87">
         <f>SUM(C87:N87)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -3818,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3828,15 +4101,18 @@
       </c>
       <c r="G88">
         <v>0</v>
+      </c>
+      <c r="H88">
+        <v>60</v>
       </c>
       <c r="O88">
         <f>SUM(C88:N88)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -3848,22 +4124,25 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
         <v>0</v>
       </c>
       <c r="O89">
         <f>SUM(C89:N89)</f>
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -3878,19 +4157,22 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="H90">
+        <v>40</v>
       </c>
       <c r="O90">
         <f>SUM(C90:N90)</f>
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -3905,25 +4187,28 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G91">
+        <v>24</v>
+      </c>
+      <c r="H91">
         <v>0</v>
       </c>
       <c r="O91">
         <f>SUM(C91:N91)</f>
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="B92">
         <v>6</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3932,28 +4217,31 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
         <v>0</v>
       </c>
       <c r="O92">
         <f>SUM(C92:N92)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B93">
         <v>6</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D93">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3962,16 +4250,19 @@
         <v>0</v>
       </c>
       <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
         <v>0</v>
       </c>
       <c r="O93">
         <f>SUM(C93:N93)</f>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="B94">
         <v>6</v>
@@ -3980,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3989,16 +4280,19 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
       </c>
       <c r="O94">
         <f>SUM(C94:N94)</f>
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="B95">
         <v>6</v>
@@ -4007,25 +4301,28 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
         <v>0</v>
       </c>
       <c r="O95">
         <f>SUM(C95:N95)</f>
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -4040,19 +4337,22 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G96">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
       </c>
       <c r="O96">
         <f>SUM(C96:N96)</f>
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="B97">
         <v>6</v>
@@ -4061,34 +4361,37 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
         <v>0</v>
       </c>
       <c r="O97">
         <f>SUM(C97:N97)</f>
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B98">
         <v>6</v>
       </c>
       <c r="C98">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4097,16 +4400,19 @@
         <v>0</v>
       </c>
       <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
         <v>0</v>
       </c>
       <c r="O98">
         <f>SUM(C98:N98)</f>
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B99">
         <v>6</v>
@@ -4121,19 +4427,22 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G99">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>18</v>
       </c>
       <c r="O99">
         <f>SUM(C99:N99)</f>
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="B100">
         <v>6</v>
@@ -4142,31 +4451,34 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
         <v>0</v>
       </c>
       <c r="O100">
         <f>SUM(C100:N100)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C101">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -4178,25 +4490,28 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>120</v>
+        <v>24</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
       </c>
       <c r="O101">
         <f>SUM(C101:N101)</f>
-        <v>340</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4205,49 +4520,55 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>284</v>
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
       </c>
       <c r="O102">
         <f>SUM(C102:N102)</f>
-        <v>308</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G103">
-        <v>214</v>
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
       </c>
       <c r="O103">
         <f>SUM(C103:N103)</f>
-        <v>285</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="B104">
         <v>4</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -4256,55 +4577,61 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="H104">
+        <v>190</v>
       </c>
       <c r="O104">
         <f>SUM(C104:N104)</f>
-        <v>272</v>
+        <v>530</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>137</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>20</v>
+      </c>
+      <c r="F105">
         <v>51</v>
       </c>
-      <c r="B105">
-        <v>4</v>
-      </c>
-      <c r="C105">
-        <v>240</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
       <c r="G105">
-        <v>0</v>
+        <v>214</v>
+      </c>
+      <c r="H105">
+        <v>100</v>
       </c>
       <c r="O105">
         <f>SUM(C105:N105)</f>
-        <v>240</v>
+        <v>385</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>4</v>
       </c>
       <c r="C106">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4313,16 +4640,19 @@
         <v>0</v>
       </c>
       <c r="G106">
+        <v>284</v>
+      </c>
+      <c r="H106">
         <v>0</v>
       </c>
       <c r="O106">
         <f>SUM(C106:N106)</f>
-        <v>240</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B107">
         <v>4</v>
@@ -4337,25 +4667,28 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>36</v>
+        <v>272</v>
       </c>
       <c r="G107">
-        <v>107</v>
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
       </c>
       <c r="O107">
         <f>SUM(C107:N107)</f>
-        <v>143</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B108">
         <v>4</v>
       </c>
       <c r="C108">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -4367,22 +4700,25 @@
         <v>0</v>
       </c>
       <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
         <v>0</v>
       </c>
       <c r="O108">
         <f>SUM(C108:N108)</f>
-        <v>140</v>
+        <v>240</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B109">
         <v>4</v>
       </c>
       <c r="C109">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -4394,49 +4730,55 @@
         <v>0</v>
       </c>
       <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
         <v>0</v>
       </c>
       <c r="O109">
         <f>SUM(C109:N109)</f>
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="B110">
         <v>4</v>
       </c>
       <c r="C110">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="H110">
+        <v>60</v>
       </c>
       <c r="O110">
         <f>SUM(C110:N110)</f>
-        <v>120</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="B111">
         <v>4</v>
       </c>
       <c r="C111">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -4448,22 +4790,25 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H111">
+        <v>84</v>
       </c>
       <c r="O111">
         <f>SUM(C111:N111)</f>
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="B112">
         <v>4</v>
       </c>
       <c r="C112">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -4472,25 +4817,28 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G112">
+        <v>107</v>
+      </c>
+      <c r="H112">
         <v>0</v>
       </c>
       <c r="O112">
         <f>SUM(C112:N112)</f>
-        <v>120</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B113">
         <v>4</v>
       </c>
       <c r="C113">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -4502,22 +4850,25 @@
         <v>0</v>
       </c>
       <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
         <v>0</v>
       </c>
       <c r="O113">
         <f>SUM(C113:N113)</f>
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="B114">
         <v>4</v>
       </c>
       <c r="C114">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -4529,16 +4880,19 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="H114">
+        <v>40</v>
       </c>
       <c r="O114">
         <f>SUM(C114:N114)</f>
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -4547,31 +4901,34 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
         <v>36</v>
       </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>72</v>
+      <c r="H115">
+        <v>60</v>
       </c>
       <c r="O115">
         <f>SUM(C115:N115)</f>
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="B116">
         <v>4</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -4580,28 +4937,31 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
         <v>0</v>
       </c>
       <c r="O116">
         <f>SUM(C116:N116)</f>
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B117">
         <v>4</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D117">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -4610,22 +4970,25 @@
         <v>0</v>
       </c>
       <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
         <v>0</v>
       </c>
       <c r="O117">
         <f>SUM(C117:N117)</f>
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="B118">
         <v>4</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -4637,25 +5000,28 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
       </c>
       <c r="O118">
         <f>SUM(C118:N118)</f>
-        <v>92</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="B119">
         <v>4</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D119">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4664,22 +5030,25 @@
         <v>0</v>
       </c>
       <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
         <v>0</v>
       </c>
       <c r="O119">
         <f>SUM(C119:N119)</f>
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="B120">
         <v>4</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -4688,28 +5057,31 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
         <v>0</v>
       </c>
       <c r="O120">
         <f>SUM(C120:N120)</f>
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B121">
         <v>4</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D121">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -4718,16 +5090,19 @@
         <v>0</v>
       </c>
       <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
         <v>0</v>
       </c>
       <c r="O121">
         <f>SUM(C121:N121)</f>
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -4742,19 +5117,22 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
         <v>0</v>
       </c>
       <c r="O122">
         <f>SUM(C122:N122)</f>
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -4763,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -4772,16 +5150,19 @@
         <v>0</v>
       </c>
       <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
         <v>0</v>
       </c>
       <c r="O123">
         <f>SUM(C123:N123)</f>
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -4790,25 +5171,28 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G124">
         <v>0</v>
+      </c>
+      <c r="H124">
+        <v>60</v>
       </c>
       <c r="O124">
         <f>SUM(C124:N124)</f>
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -4817,31 +5201,34 @@
         <v>0</v>
       </c>
       <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
         <v>36</v>
       </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
       <c r="G125">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>60</v>
       </c>
       <c r="O125">
         <f>SUM(C125:N125)</f>
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="B126">
         <v>4</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -4853,16 +5240,19 @@
         <v>0</v>
       </c>
       <c r="G126">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>30</v>
       </c>
       <c r="O126">
         <f>SUM(C126:N126)</f>
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="B127">
         <v>4</v>
@@ -4871,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -4880,22 +5270,25 @@
         <v>0</v>
       </c>
       <c r="G127">
-        <v>69</v>
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
       </c>
       <c r="O127">
         <f>SUM(C127:N127)</f>
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="B128">
         <v>4</v>
       </c>
       <c r="C128">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -4904,28 +5297,31 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
         <v>0</v>
       </c>
       <c r="O128">
         <f>SUM(C128:N128)</f>
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="B129">
         <v>4</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D129">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -4935,24 +5331,27 @@
       </c>
       <c r="G129">
         <v>0</v>
+      </c>
+      <c r="H129">
+        <v>60</v>
       </c>
       <c r="O129">
         <f>SUM(C129:N129)</f>
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B130">
         <v>4</v>
       </c>
       <c r="C130">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -4961,22 +5360,25 @@
         <v>0</v>
       </c>
       <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
         <v>0</v>
       </c>
       <c r="O130">
         <f>SUM(C130:N130)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="B131">
         <v>4</v>
       </c>
       <c r="C131">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -4985,28 +5387,31 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
         <v>0</v>
       </c>
       <c r="O131">
         <f>SUM(C131:N131)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B132">
         <v>4</v>
       </c>
       <c r="C132">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -5015,16 +5420,19 @@
         <v>0</v>
       </c>
       <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
         <v>0</v>
       </c>
       <c r="O132">
         <f>SUM(C132:N132)</f>
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B133">
         <v>4</v>
@@ -5033,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -5042,16 +5450,19 @@
         <v>0</v>
       </c>
       <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
         <v>0</v>
       </c>
       <c r="O133">
         <f>SUM(C133:N133)</f>
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="B134">
         <v>4</v>
@@ -5060,25 +5471,28 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G134">
+        <v>72</v>
+      </c>
+      <c r="H134">
         <v>0</v>
       </c>
       <c r="O134">
         <f>SUM(C134:N134)</f>
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -5096,25 +5510,28 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>60</v>
+        <v>69</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
       </c>
       <c r="O135">
         <f>SUM(C135:N135)</f>
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B136">
         <v>4</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D136">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -5123,16 +5540,19 @@
         <v>0</v>
       </c>
       <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
         <v>0</v>
       </c>
       <c r="O136">
         <f>SUM(C136:N136)</f>
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="B137">
         <v>4</v>
@@ -5141,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -5150,22 +5570,25 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
       </c>
       <c r="O137">
         <f>SUM(C137:N137)</f>
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B138">
         <v>4</v>
       </c>
       <c r="C138">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -5174,46 +5597,52 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
         <v>0</v>
       </c>
       <c r="O138">
         <f>SUM(C138:N138)</f>
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="B139">
         <v>4</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D139">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F139">
         <v>0</v>
       </c>
       <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
         <v>0</v>
       </c>
       <c r="O139">
         <f>SUM(C139:N139)</f>
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -5222,25 +5651,28 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E140">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F140">
         <v>0</v>
       </c>
       <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
         <v>0</v>
       </c>
       <c r="O140">
         <f>SUM(C140:N140)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="B141">
         <v>4</v>
@@ -5249,25 +5681,28 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E141">
         <v>0</v>
       </c>
       <c r="F141">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
         <v>0</v>
       </c>
       <c r="O141">
         <f>SUM(C141:N141)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="B142">
         <v>4</v>
@@ -5282,19 +5717,22 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G142">
         <v>0</v>
+      </c>
+      <c r="H142">
+        <v>60</v>
       </c>
       <c r="O142">
         <f>SUM(C142:N142)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="B143">
         <v>4</v>
@@ -5303,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -5313,15 +5751,18 @@
       </c>
       <c r="G143">
         <v>0</v>
+      </c>
+      <c r="H143">
+        <v>60</v>
       </c>
       <c r="O143">
         <f>SUM(C143:N143)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B144">
         <v>4</v>
@@ -5330,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -5339,16 +5780,19 @@
         <v>0</v>
       </c>
       <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
         <v>0</v>
       </c>
       <c r="O144">
         <f>SUM(C144:N144)</f>
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="B145">
         <v>4</v>
@@ -5360,49 +5804,55 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
+        <v>55</v>
+      </c>
+      <c r="H145">
         <v>0</v>
       </c>
       <c r="O145">
         <f>SUM(C145:N145)</f>
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="B146">
         <v>4</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
         <v>0</v>
       </c>
       <c r="O146">
         <f>SUM(C146:N146)</f>
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="B147">
         <v>4</v>
@@ -5414,22 +5864,25 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="H147">
+        <v>40</v>
       </c>
       <c r="O147">
         <f>SUM(C147:N147)</f>
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="B148">
         <v>4</v>
@@ -5438,25 +5891,28 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F148">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
         <v>0</v>
       </c>
       <c r="O148">
         <f>SUM(C148:N148)</f>
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B149">
         <v>4</v>
@@ -5468,22 +5924,25 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F149">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
         <v>0</v>
       </c>
       <c r="O149">
         <f>SUM(C149:N149)</f>
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B150">
         <v>4</v>
@@ -5498,19 +5957,22 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
         <v>0</v>
       </c>
       <c r="O150">
         <f>SUM(C150:N150)</f>
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B151">
         <v>4</v>
@@ -5525,19 +5987,22 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
         <v>0</v>
       </c>
       <c r="O151">
         <f>SUM(C151:N151)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="B152">
         <v>4</v>
@@ -5546,15 +6011,18 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
         <v>0</v>
       </c>
       <c r="O152">
@@ -5564,7 +6032,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="B153">
         <v>4</v>
@@ -5573,15 +6041,18 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
         <v>0</v>
       </c>
       <c r="O153">
@@ -5591,7 +6062,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="B154">
         <v>4</v>
@@ -5603,13 +6074,16 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F154">
         <v>0</v>
       </c>
       <c r="G154">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
       </c>
       <c r="O154">
         <f>SUM(C154:N154)</f>
@@ -5618,7 +6092,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B155">
         <v>4</v>
@@ -5627,25 +6101,28 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
       <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
         <v>0</v>
       </c>
       <c r="O155">
         <f>SUM(C155:N155)</f>
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="B156">
         <v>4</v>
@@ -5654,25 +6131,28 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F156">
         <v>0</v>
       </c>
       <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
         <v>0</v>
       </c>
       <c r="O156">
         <f>SUM(C156:N156)</f>
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -5687,25 +6167,28 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G157">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
       </c>
       <c r="O157">
         <f>SUM(C157:N157)</f>
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="B158">
         <v>4</v>
       </c>
       <c r="C158">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -5714,25 +6197,28 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
         <v>0</v>
       </c>
       <c r="O158">
         <f>SUM(C158:N158)</f>
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="B159">
         <v>4</v>
       </c>
       <c r="C159">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -5741,19 +6227,22 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
         <v>0</v>
       </c>
       <c r="O159">
         <f>SUM(C159:N159)</f>
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="B160">
         <v>4</v>
@@ -5762,25 +6251,28 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E160">
         <v>0</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
         <v>0</v>
       </c>
       <c r="O160">
         <f>SUM(C160:N160)</f>
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="B161">
         <v>4</v>
@@ -5792,22 +6284,25 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161">
+        <v>36</v>
+      </c>
+      <c r="H161">
         <v>0</v>
       </c>
       <c r="O161">
         <f>SUM(C161:N161)</f>
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="B162">
         <v>4</v>
@@ -5816,25 +6311,28 @@
         <v>0</v>
       </c>
       <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
         <v>12</v>
       </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
       <c r="F162">
         <v>0</v>
       </c>
       <c r="G162">
         <v>0</v>
+      </c>
+      <c r="H162">
+        <v>20</v>
       </c>
       <c r="O162">
         <f>SUM(C162:N162)</f>
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -5843,25 +6341,28 @@
         <v>0</v>
       </c>
       <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
         <v>12</v>
       </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
       <c r="F163">
         <v>0</v>
       </c>
       <c r="G163">
         <v>0</v>
+      </c>
+      <c r="H163">
+        <v>20</v>
       </c>
       <c r="O163">
         <f>SUM(C163:N163)</f>
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -5870,25 +6371,28 @@
         <v>0</v>
       </c>
       <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
         <v>12</v>
       </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
       <c r="F164">
         <v>0</v>
       </c>
       <c r="G164">
         <v>0</v>
+      </c>
+      <c r="H164">
+        <v>20</v>
       </c>
       <c r="O164">
         <f>SUM(C164:N164)</f>
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -5897,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -5906,16 +6410,19 @@
         <v>0</v>
       </c>
       <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
         <v>0</v>
       </c>
       <c r="O165">
         <f>SUM(C165:N165)</f>
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="B166">
         <v>4</v>
@@ -5924,25 +6431,28 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E166">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
         <v>0</v>
       </c>
       <c r="O166">
         <f>SUM(C166:N166)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="B167">
         <v>4</v>
@@ -5954,49 +6464,55 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167">
+        <v>24</v>
+      </c>
+      <c r="H167">
         <v>0</v>
       </c>
       <c r="O167">
         <f>SUM(C167:N167)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="B168">
         <v>4</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D168">
         <v>0</v>
       </c>
       <c r="E168">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
       <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
         <v>0</v>
       </c>
       <c r="O168">
         <f>SUM(C168:N168)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="B169">
         <v>4</v>
@@ -6005,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -6014,16 +6530,19 @@
         <v>0</v>
       </c>
       <c r="G169">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
       </c>
       <c r="O169">
         <f>SUM(C169:N169)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="B170">
         <v>4</v>
@@ -6032,25 +6551,28 @@
         <v>0</v>
       </c>
       <c r="D170">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
       <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
         <v>0</v>
       </c>
       <c r="O170">
         <f>SUM(C170:N170)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B171">
         <v>4</v>
@@ -6059,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -6068,21 +6590,174 @@
         <v>0</v>
       </c>
       <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
         <v>0</v>
       </c>
       <c r="O171">
         <f>SUM(C171:N171)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>108</v>
+      </c>
+      <c r="B172">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>12</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <f>SUM(C172:N172)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>109</v>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>12</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <f>SUM(C173:N173)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>110</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>12</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <f>SUM(C174:N174)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>111</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>10</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <f>SUM(C175:N175)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>112</v>
+      </c>
+      <c r="B176">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
         <v>5</v>
       </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <f>SUM(C176:N176)</f>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O171">
-    <sortCondition descending="1" ref="B2:B171"/>
-    <sortCondition descending="1" ref="O2:O171"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O176">
+    <sortCondition descending="1" ref="B2:B176"/>
+    <sortCondition descending="1" ref="O2:O176"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="O2:O171" formulaRange="1"/>
+    <ignoredError sqref="O2:O176" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Classics_Squad/2022/Spring_Classics_M.xlsx
+++ b/Classics_Squad/2022/Spring_Classics_M.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75ca376656bd96ab/Documents/Velogames Ultimate Team/Classics_Squad/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1049" documentId="8_{48380F6D-8971-4F5F-99EA-E334BF96AAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8382CB7A-8121-4128-8A32-3D5BF0F193C0}"/>
+  <xr:revisionPtr revIDLastSave="1472" documentId="8_{48380F6D-8971-4F5F-99EA-E334BF96AAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9DE55F7-67F3-44BC-B521-6FD5EB8E00EB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Names</t>
   </si>
@@ -602,6 +602,78 @@
   </si>
   <si>
     <t>Manuele Boaro</t>
+  </si>
+  <si>
+    <t>Fabio Jakobsen</t>
+  </si>
+  <si>
+    <t>Zdenek Stybar</t>
+  </si>
+  <si>
+    <t>Edward Theuns</t>
+  </si>
+  <si>
+    <t>Jordi Meeus</t>
+  </si>
+  <si>
+    <t>Cees Bol</t>
+  </si>
+  <si>
+    <t>Dan McLay</t>
+  </si>
+  <si>
+    <t>Szymon Sajnok</t>
+  </si>
+  <si>
+    <t>Baptiste Planckaert</t>
+  </si>
+  <si>
+    <t>Martin Laas</t>
+  </si>
+  <si>
+    <t>Alberto Dainese</t>
+  </si>
+  <si>
+    <t>Sam Welsford</t>
+  </si>
+  <si>
+    <t>Kenneth Vanbilsen</t>
+  </si>
+  <si>
+    <t>Ruediger Selig</t>
+  </si>
+  <si>
+    <t>Emils Liepins</t>
+  </si>
+  <si>
+    <t>Kenneth Van Rooy</t>
+  </si>
+  <si>
+    <t>Tom Devriendt</t>
+  </si>
+  <si>
+    <t>Boy Van Poppel</t>
+  </si>
+  <si>
+    <t>Barnabas Peak</t>
+  </si>
+  <si>
+    <t>Stijn Steels</t>
+  </si>
+  <si>
+    <t>Guillaume Van Keirsbulck</t>
+  </si>
+  <si>
+    <t>Julien Morice</t>
+  </si>
+  <si>
+    <t>Nico Denz</t>
+  </si>
+  <si>
+    <t>Niklas Maerkl</t>
+  </si>
+  <si>
+    <t>Daan Hoole</t>
   </si>
 </sst>
 </file>
@@ -1442,15 +1514,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O176"/>
+  <dimension ref="A1:O200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1525,6 +1597,9 @@
       <c r="H2">
         <v>440</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="O2">
         <f>SUM(C2:N2)</f>
         <v>790</v>
@@ -1555,6 +1630,9 @@
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="O3">
         <f>SUM(C3:N3)</f>
         <v>717</v>
@@ -1585,6 +1663,9 @@
       <c r="H4">
         <v>580</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="O4">
         <f>SUM(C4:N4)</f>
         <v>1202</v>
@@ -1615,6 +1696,9 @@
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="O5">
         <f>SUM(C5:N5)</f>
         <v>84</v>
@@ -1645,6 +1729,9 @@
       <c r="H6">
         <v>210</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="O6">
         <f>SUM(C6:N6)</f>
         <v>482</v>
@@ -1675,6 +1762,9 @@
       <c r="H7">
         <v>48</v>
       </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="O7">
         <f>SUM(C7:N7)</f>
         <v>230</v>
@@ -1705,6 +1795,9 @@
       <c r="H8">
         <v>240</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="O8">
         <f>SUM(C8:N8)</f>
         <v>671</v>
@@ -1735,6 +1828,9 @@
       <c r="H9">
         <v>0</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="O9">
         <f>SUM(C9:N9)</f>
         <v>524</v>
@@ -1765,6 +1861,9 @@
       <c r="H10">
         <v>200</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
       <c r="O10">
         <f>SUM(C10:N10)</f>
         <v>460</v>
@@ -1795,6 +1894,9 @@
       <c r="H11">
         <v>100</v>
       </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
       <c r="O11">
         <f>SUM(C11:N11)</f>
         <v>245</v>
@@ -1825,6 +1927,9 @@
       <c r="H12">
         <v>0</v>
       </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
       <c r="O12">
         <f>SUM(C12:N12)</f>
         <v>78</v>
@@ -1855,6 +1960,9 @@
       <c r="H13">
         <v>0</v>
       </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
       <c r="O13">
         <f>SUM(C13:N13)</f>
         <v>52</v>
@@ -1885,6 +1993,9 @@
       <c r="H14">
         <v>6</v>
       </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
       <c r="O14">
         <f>SUM(C14:N14)</f>
         <v>26</v>
@@ -1915,6 +2026,9 @@
       <c r="H15">
         <v>0</v>
       </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
       <c r="O15">
         <f>SUM(C15:N15)</f>
         <v>5</v>
@@ -1945,6 +2059,9 @@
       <c r="H16">
         <v>220</v>
       </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
       <c r="O16">
         <f>SUM(C16:N16)</f>
         <v>966</v>
@@ -1975,6 +2092,9 @@
       <c r="H17">
         <v>60</v>
       </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
       <c r="O17">
         <f>SUM(C17:N17)</f>
         <v>796</v>
@@ -2005,6 +2125,9 @@
       <c r="H18">
         <v>320</v>
       </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
       <c r="O18">
         <f>SUM(C18:N18)</f>
         <v>778</v>
@@ -2012,37 +2135,40 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="G19">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>120</v>
+        <v>150</v>
+      </c>
+      <c r="I19">
+        <v>394</v>
       </c>
       <c r="O19">
         <f>SUM(C19:N19)</f>
-        <v>652</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -2051,58 +2177,64 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E20">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>470</v>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>264</v>
       </c>
       <c r="O20">
         <f>SUM(C20:N20)</f>
-        <v>648</v>
+        <v>664</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B21">
         <v>10</v>
       </c>
       <c r="C21">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="F21">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="H21">
+        <v>120</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
       <c r="O21">
         <f>SUM(C21:N21)</f>
-        <v>549</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -2111,88 +2243,97 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="F22">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H22">
+        <v>470</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
       <c r="O22">
         <f>SUM(C22:N22)</f>
-        <v>400</v>
+        <v>648</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="F23">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>150</v>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
       </c>
       <c r="O23">
         <f>SUM(C23:N23)</f>
-        <v>316</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H24">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="I24">
+        <v>274</v>
       </c>
       <c r="O24">
         <f>SUM(C24:N24)</f>
-        <v>221</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -2201,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2214,87 +2355,96 @@
       </c>
       <c r="H25">
         <v>0</v>
+      </c>
+      <c r="I25">
+        <v>258</v>
       </c>
       <c r="O25">
         <f>SUM(C25:N25)</f>
-        <v>220</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>220</v>
+        <v>66</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
       </c>
       <c r="O26">
         <f>SUM(C26:N26)</f>
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B27">
         <v>10</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
       </c>
       <c r="O27">
         <f>SUM(C27:N27)</f>
-        <v>176</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
       <c r="C28">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2303,28 +2453,31 @@
         <v>0</v>
       </c>
       <c r="H28">
+        <v>220</v>
+      </c>
+      <c r="I28">
         <v>0</v>
       </c>
       <c r="O28">
         <f>SUM(C28:N28)</f>
-        <v>146</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>10</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D29">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2333,16 +2486,19 @@
         <v>0</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>0</v>
       </c>
       <c r="O29">
         <f>SUM(C29:N29)</f>
-        <v>70</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -2354,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2364,15 +2520,18 @@
       </c>
       <c r="H30">
         <v>0</v>
+      </c>
+      <c r="I30">
+        <v>80</v>
       </c>
       <c r="O30">
         <f>SUM(C30:N30)</f>
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -2381,10 +2540,10 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2393,49 +2552,55 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>0</v>
       </c>
       <c r="O31">
         <f>SUM(C31:N31)</f>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E32">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>0</v>
       </c>
       <c r="O32">
         <f>SUM(C32:N32)</f>
-        <v>698</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2444,205 +2609,226 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>360</v>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
       </c>
       <c r="O33">
         <f>SUM(C33:N33)</f>
-        <v>648</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>8</v>
       </c>
       <c r="C34">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="F34">
-        <v>196</v>
+        <v>322</v>
       </c>
       <c r="G34">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>0</v>
       </c>
       <c r="O34">
         <f>SUM(C34:N34)</f>
-        <v>466</v>
+        <v>698</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="B35">
         <v>8</v>
       </c>
       <c r="C35">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F35">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H35">
+        <v>360</v>
+      </c>
+      <c r="I35">
         <v>0</v>
       </c>
       <c r="O35">
         <f>SUM(C35:N35)</f>
-        <v>446</v>
+        <v>648</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>8</v>
       </c>
       <c r="C36">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E36">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>114</v>
+        <v>90</v>
+      </c>
+      <c r="I36">
+        <v>364</v>
       </c>
       <c r="O36">
         <f>SUM(C36:N36)</f>
-        <v>403</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="B37">
         <v>8</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="G37">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="H37">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
       </c>
       <c r="O37">
         <f>SUM(C37:N37)</f>
-        <v>326</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="B38">
         <v>8</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="G38">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>0</v>
       </c>
       <c r="O38">
         <f>SUM(C38:N38)</f>
-        <v>304</v>
+        <v>446</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>8</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D39">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
+        <v>114</v>
+      </c>
+      <c r="I39">
         <v>0</v>
       </c>
       <c r="O39">
         <f>SUM(C39:N39)</f>
-        <v>224</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -2657,22 +2843,25 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>95</v>
+        <v>304</v>
       </c>
       <c r="H40">
         <v>0</v>
+      </c>
+      <c r="I40">
+        <v>99</v>
       </c>
       <c r="O40">
         <f>SUM(C40:N40)</f>
-        <v>216</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -2681,34 +2870,37 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H41">
+        <v>72</v>
+      </c>
+      <c r="I41">
         <v>0</v>
       </c>
       <c r="O41">
         <f>SUM(C41:N41)</f>
-        <v>180</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="B42">
         <v>8</v>
       </c>
       <c r="C42">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2724,15 +2916,18 @@
       </c>
       <c r="H42">
         <v>0</v>
+      </c>
+      <c r="I42">
+        <v>304</v>
       </c>
       <c r="O42">
         <f>SUM(C42:N42)</f>
-        <v>160</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -2741,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2754,24 +2949,27 @@
       </c>
       <c r="H43">
         <v>0</v>
+      </c>
+      <c r="I43">
+        <v>263</v>
       </c>
       <c r="O43">
         <f>SUM(C43:N43)</f>
-        <v>140</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B44">
         <v>8</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2783,16 +2981,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
       </c>
       <c r="O44">
         <f>SUM(C44:N44)</f>
-        <v>135</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -2804,25 +3005,28 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="G45">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="H45">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
       </c>
       <c r="O45">
         <f>SUM(C45:N45)</f>
-        <v>131</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -2831,34 +3035,37 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>0</v>
       </c>
       <c r="O46">
         <f>SUM(C46:N46)</f>
-        <v>114</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>8</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2867,64 +3074,70 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
       </c>
       <c r="O47">
         <f>SUM(C47:N47)</f>
-        <v>98</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B48">
         <v>8</v>
       </c>
       <c r="C48">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E48">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
         <v>0</v>
+      </c>
+      <c r="I48">
+        <v>45</v>
       </c>
       <c r="O48">
         <f>SUM(C48:N48)</f>
-        <v>91</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B49">
         <v>8</v>
       </c>
       <c r="C49">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2933,16 +3146,19 @@
         <v>0</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>0</v>
       </c>
       <c r="O49">
         <f>SUM(C49:N49)</f>
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B50">
         <v>8</v>
@@ -2954,31 +3170,34 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F50">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H50">
-        <v>12</v>
+        <v>60</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
       </c>
       <c r="O50">
         <f>SUM(C50:N50)</f>
-        <v>74</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="B51">
         <v>8</v>
       </c>
       <c r="C51">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2987,22 +3206,25 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
         <v>0</v>
+      </c>
+      <c r="I51">
+        <v>40</v>
       </c>
       <c r="O51">
         <f>SUM(C51:N51)</f>
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -3014,61 +3236,67 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
+        <v>78</v>
+      </c>
+      <c r="I52">
         <v>0</v>
       </c>
       <c r="O52">
         <f>SUM(C52:N52)</f>
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="B53">
         <v>8</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F53">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>0</v>
       </c>
       <c r="O53">
         <f>SUM(C53:N53)</f>
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B54">
         <v>8</v>
       </c>
       <c r="C54">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3077,28 +3305,31 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
         <v>0</v>
       </c>
       <c r="O54">
         <f>SUM(C54:N54)</f>
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="B55">
         <v>8</v>
       </c>
       <c r="C55">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3107,28 +3338,31 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H55">
+        <v>12</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
       <c r="O55">
         <f>SUM(C55:N55)</f>
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <v>8</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3140,31 +3374,34 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
       <c r="O56">
         <f>SUM(C56:N56)</f>
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="B57">
         <v>8</v>
       </c>
       <c r="C57">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3173,22 +3410,25 @@
         <v>0</v>
       </c>
       <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
         <v>0</v>
       </c>
       <c r="O57">
         <f>SUM(C57:N57)</f>
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="B58">
         <v>8</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3197,28 +3437,31 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G58">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>0</v>
       </c>
       <c r="O58">
         <f>SUM(C58:N58)</f>
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B59">
         <v>8</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3233,19 +3476,22 @@
         <v>0</v>
       </c>
       <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>0</v>
       </c>
       <c r="O59">
         <f>SUM(C59:N59)</f>
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3260,25 +3506,28 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H60">
-        <v>320</v>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
       </c>
       <c r="O60">
         <f>SUM(C60:N60)</f>
-        <v>350</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3287,55 +3536,61 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
         <v>0</v>
       </c>
       <c r="O61">
         <f>SUM(C61:N61)</f>
-        <v>288</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H62">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
       </c>
       <c r="O62">
         <f>SUM(C62:N62)</f>
-        <v>273</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3344,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3353,46 +3608,52 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>12</v>
       </c>
       <c r="O63">
         <f>SUM(C63:N63)</f>
-        <v>226</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64">
         <v>6</v>
       </c>
-      <c r="C64">
-        <v>18</v>
-      </c>
       <c r="D64">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>0</v>
       </c>
       <c r="O64">
         <f>SUM(C64:N64)</f>
-        <v>193</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -3401,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3410,19 +3671,22 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H65">
+        <v>320</v>
+      </c>
+      <c r="I65">
         <v>0</v>
       </c>
       <c r="O65">
         <f>SUM(C65:N65)</f>
-        <v>184</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -3434,25 +3698,28 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
         <v>0</v>
       </c>
       <c r="O66">
         <f>SUM(C66:N66)</f>
-        <v>177</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -3461,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3473,46 +3740,52 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>284</v>
       </c>
       <c r="O67">
         <f>SUM(C67:N67)</f>
-        <v>150</v>
+        <v>284</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="B68">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E68">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F68">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H68">
+        <v>60</v>
+      </c>
+      <c r="I68">
         <v>0</v>
       </c>
       <c r="O68">
         <f>SUM(C68:N68)</f>
-        <v>149</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -3521,28 +3794,31 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
       </c>
       <c r="O69">
         <f>SUM(C69:N69)</f>
-        <v>144</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -3551,23 +3827,26 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="E70">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>85</v>
       </c>
       <c r="O70">
         <f>SUM(C70:N70)</f>
-        <v>137</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -3595,44 +3874,50 @@
       <c r="H71">
         <v>96</v>
       </c>
+      <c r="I71">
+        <v>65</v>
+      </c>
       <c r="O71">
         <f>SUM(C71:N71)</f>
-        <v>136</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B72">
         <v>6</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D72">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>0</v>
       </c>
       <c r="O72">
         <f>SUM(C72:N72)</f>
-        <v>130</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -3641,28 +3926,31 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E73">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
         <v>0</v>
       </c>
       <c r="O73">
         <f>SUM(C73:N73)</f>
-        <v>96</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -3671,28 +3959,31 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
       </c>
       <c r="O74">
         <f>SUM(C74:N74)</f>
-        <v>96</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -3701,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3713,46 +4004,52 @@
         <v>0</v>
       </c>
       <c r="H75">
+        <v>60</v>
+      </c>
+      <c r="I75">
         <v>0</v>
       </c>
       <c r="O75">
         <f>SUM(C75:N75)</f>
-        <v>95</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="B76">
         <v>6</v>
       </c>
       <c r="C76">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="F76">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <v>0</v>
       </c>
       <c r="O76">
         <f>SUM(C76:N76)</f>
-        <v>88</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -3761,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3770,19 +4067,22 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H77">
+        <v>42</v>
+      </c>
+      <c r="I77">
         <v>0</v>
       </c>
       <c r="O77">
         <f>SUM(C77:N77)</f>
-        <v>85</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -3794,25 +4094,28 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H78">
+        <v>20</v>
+      </c>
+      <c r="I78">
         <v>0</v>
       </c>
       <c r="O78">
         <f>SUM(C78:N78)</f>
-        <v>85</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -3821,28 +4124,31 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E79">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
         <v>0</v>
+      </c>
+      <c r="I79">
+        <v>30</v>
       </c>
       <c r="O79">
         <f>SUM(C79:N79)</f>
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -3851,28 +4157,31 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
         <v>0</v>
       </c>
       <c r="O80">
         <f>SUM(C80:N80)</f>
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -3881,28 +4190,31 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E81">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
+        <v>60</v>
+      </c>
+      <c r="I81">
         <v>0</v>
       </c>
       <c r="O81">
         <f>SUM(C81:N81)</f>
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -3914,25 +4226,28 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="I82">
+        <v>36</v>
       </c>
       <c r="O82">
         <f>SUM(C82:N82)</f>
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -3944,64 +4259,70 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F83">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>24</v>
       </c>
       <c r="O83">
         <f>SUM(C83:N83)</f>
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B84">
         <v>6</v>
       </c>
       <c r="C84">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
         <v>0</v>
       </c>
       <c r="O84">
         <f>SUM(C84:N84)</f>
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B85">
         <v>6</v>
       </c>
       <c r="C85">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4013,16 +4334,19 @@
         <v>0</v>
       </c>
       <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
         <v>0</v>
       </c>
       <c r="O85">
         <f>SUM(C85:N85)</f>
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -4037,22 +4361,25 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H86">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
       </c>
       <c r="O86">
         <f>SUM(C86:N86)</f>
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -4064,25 +4391,28 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
       </c>
       <c r="O87">
         <f>SUM(C87:N87)</f>
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -4091,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -4103,16 +4433,19 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
       </c>
       <c r="O88">
         <f>SUM(C88:N88)</f>
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -4124,25 +4457,28 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F89">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
         <v>0</v>
       </c>
       <c r="O89">
         <f>SUM(C89:N89)</f>
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -4154,25 +4490,28 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G90">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
       </c>
       <c r="O90">
         <f>SUM(C90:N90)</f>
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -4184,31 +4523,34 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F91">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>0</v>
+      </c>
+      <c r="I91">
+        <v>25</v>
       </c>
       <c r="O91">
         <f>SUM(C91:N91)</f>
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B92">
         <v>6</v>
       </c>
       <c r="C92">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -4223,22 +4565,25 @@
         <v>0</v>
       </c>
       <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
         <v>0</v>
       </c>
       <c r="O92">
         <f>SUM(C92:N92)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B93">
         <v>6</v>
       </c>
       <c r="C93">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -4253,16 +4598,19 @@
         <v>0</v>
       </c>
       <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
         <v>0</v>
       </c>
       <c r="O93">
         <f>SUM(C93:N93)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="B94">
         <v>6</v>
@@ -4271,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4283,16 +4631,19 @@
         <v>0</v>
       </c>
       <c r="H94">
+        <v>60</v>
+      </c>
+      <c r="I94">
         <v>0</v>
       </c>
       <c r="O94">
         <f>SUM(C94:N94)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="B95">
         <v>6</v>
@@ -4304,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -4313,16 +4664,19 @@
         <v>0</v>
       </c>
       <c r="H95">
+        <v>60</v>
+      </c>
+      <c r="I95">
         <v>0</v>
       </c>
       <c r="O95">
         <f>SUM(C95:N95)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -4337,22 +4691,25 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
         <v>0</v>
+      </c>
+      <c r="I96">
+        <v>60</v>
       </c>
       <c r="O96">
         <f>SUM(C96:N96)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B97">
         <v>6</v>
@@ -4367,22 +4724,25 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
         <v>0</v>
       </c>
       <c r="O97">
         <f>SUM(C97:N97)</f>
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="B98">
         <v>6</v>
@@ -4391,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4400,19 +4760,22 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H98">
+        <v>40</v>
+      </c>
+      <c r="I98">
         <v>0</v>
       </c>
       <c r="O98">
         <f>SUM(C98:N98)</f>
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B99">
         <v>6</v>
@@ -4427,31 +4790,34 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H99">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
       </c>
       <c r="O99">
         <f>SUM(C99:N99)</f>
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B100">
         <v>6</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D100">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4463,22 +4829,25 @@
         <v>0</v>
       </c>
       <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
         <v>0</v>
       </c>
       <c r="O100">
         <f>SUM(C100:N100)</f>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="B101">
         <v>6</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -4490,19 +4859,22 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
         <v>0</v>
       </c>
       <c r="O101">
         <f>SUM(C101:N101)</f>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B102">
         <v>6</v>
@@ -4511,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4523,22 +4895,25 @@
         <v>0</v>
       </c>
       <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
         <v>0</v>
       </c>
       <c r="O102">
         <f>SUM(C102:N102)</f>
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="B103">
         <v>6</v>
       </c>
       <c r="C103">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4547,28 +4922,31 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
         <v>0</v>
       </c>
       <c r="O103">
         <f>SUM(C103:N103)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="B104">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C104">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -4577,25 +4955,28 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G104">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>190</v>
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
       </c>
       <c r="O104">
         <f>SUM(C104:N104)</f>
-        <v>530</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -4604,34 +4985,37 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>36</v>
       </c>
       <c r="O105">
         <f>SUM(C105:N105)</f>
-        <v>385</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B106">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4640,22 +5024,25 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
         <v>0</v>
       </c>
       <c r="O106">
         <f>SUM(C106:N106)</f>
-        <v>308</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B107">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -4667,31 +5054,34 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>272</v>
+        <v>10</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
+        <v>18</v>
+      </c>
+      <c r="I107">
         <v>0</v>
       </c>
       <c r="O107">
         <f>SUM(C107:N107)</f>
-        <v>272</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B108">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C108">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -4703,22 +5093,25 @@
         <v>0</v>
       </c>
       <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
         <v>0</v>
       </c>
       <c r="O108">
         <f>SUM(C108:N108)</f>
-        <v>240</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="B109">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C109">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -4730,22 +5123,25 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
         <v>0</v>
       </c>
       <c r="O109">
         <f>SUM(C109:N109)</f>
-        <v>240</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -4754,34 +5150,37 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>24</v>
       </c>
       <c r="O110">
         <f>SUM(C110:N110)</f>
-        <v>168</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -4790,22 +5189,25 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>84</v>
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
       </c>
       <c r="O111">
         <f>SUM(C111:N111)</f>
-        <v>144</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="B112">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -4817,28 +5219,31 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>0</v>
+      </c>
+      <c r="I112">
+        <v>12</v>
       </c>
       <c r="O112">
         <f>SUM(C112:N112)</f>
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C113">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -4853,22 +5258,25 @@
         <v>0</v>
       </c>
       <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
         <v>0</v>
       </c>
       <c r="O113">
         <f>SUM(C113:N113)</f>
-        <v>140</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="B114">
         <v>4</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -4880,55 +5288,61 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="H114">
-        <v>40</v>
+        <v>190</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
       </c>
       <c r="O114">
         <f>SUM(C114:N114)</f>
-        <v>132</v>
+        <v>530</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>137</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>20</v>
+      </c>
+      <c r="F115">
+        <v>51</v>
+      </c>
+      <c r="G115">
+        <v>214</v>
+      </c>
+      <c r="H115">
         <v>100</v>
       </c>
-      <c r="B115">
-        <v>4</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <v>36</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>36</v>
-      </c>
-      <c r="H115">
-        <v>60</v>
+      <c r="I115">
+        <v>0</v>
       </c>
       <c r="O115">
         <f>SUM(C115:N115)</f>
-        <v>132</v>
+        <v>385</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="B116">
         <v>4</v>
       </c>
       <c r="C116">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -4944,27 +5358,30 @@
       </c>
       <c r="H116">
         <v>0</v>
+      </c>
+      <c r="I116">
+        <v>344</v>
       </c>
       <c r="O116">
         <f>SUM(C116:N116)</f>
-        <v>120</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="B117">
         <v>4</v>
       </c>
       <c r="C117">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -4974,24 +5391,27 @@
       </c>
       <c r="H117">
         <v>0</v>
+      </c>
+      <c r="I117">
+        <v>278</v>
       </c>
       <c r="O117">
         <f>SUM(C117:N117)</f>
-        <v>120</v>
+        <v>314</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="B118">
         <v>4</v>
       </c>
       <c r="C118">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -5000,25 +5420,28 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
         <v>0</v>
       </c>
       <c r="O118">
         <f>SUM(C118:N118)</f>
-        <v>120</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="B119">
         <v>4</v>
       </c>
       <c r="C119">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -5034,21 +5457,24 @@
       </c>
       <c r="H119">
         <v>0</v>
+      </c>
+      <c r="I119">
+        <v>294</v>
       </c>
       <c r="O119">
         <f>SUM(C119:N119)</f>
-        <v>120</v>
+        <v>294</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="B120">
         <v>4</v>
       </c>
       <c r="C120">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -5057,28 +5483,31 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
         <v>0</v>
       </c>
       <c r="O120">
         <f>SUM(C120:N120)</f>
-        <v>120</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="B121">
         <v>4</v>
       </c>
       <c r="C121">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -5094,21 +5523,24 @@
       </c>
       <c r="H121">
         <v>0</v>
+      </c>
+      <c r="I121">
+        <v>244</v>
       </c>
       <c r="O121">
         <f>SUM(C121:N121)</f>
-        <v>120</v>
+        <v>244</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="B122">
         <v>4</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -5117,31 +5549,34 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
         <v>0</v>
       </c>
       <c r="O122">
         <f>SUM(C122:N122)</f>
-        <v>101</v>
+        <v>240</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B123">
         <v>4</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D123">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -5153,16 +5588,19 @@
         <v>0</v>
       </c>
       <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
         <v>0</v>
       </c>
       <c r="O123">
         <f>SUM(C123:N123)</f>
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -5174,25 +5612,28 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F124">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H124">
         <v>60</v>
       </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
       <c r="O124">
         <f>SUM(C124:N124)</f>
-        <v>96</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -5207,28 +5648,31 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H125">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
       </c>
       <c r="O125">
         <f>SUM(C125:N125)</f>
-        <v>96</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="B126">
         <v>4</v>
       </c>
       <c r="C126">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -5237,31 +5681,34 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="H126">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
       </c>
       <c r="O126">
         <f>SUM(C126:N126)</f>
-        <v>90</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B127">
         <v>4</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D127">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -5273,16 +5720,19 @@
         <v>0</v>
       </c>
       <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
         <v>0</v>
       </c>
       <c r="O127">
         <f>SUM(C127:N127)</f>
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="B128">
         <v>4</v>
@@ -5297,31 +5747,34 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="H128">
+        <v>40</v>
+      </c>
+      <c r="I128">
         <v>0</v>
       </c>
       <c r="O128">
         <f>SUM(C128:N128)</f>
-        <v>80</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B129">
         <v>4</v>
       </c>
       <c r="C129">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -5330,28 +5783,31 @@
         <v>0</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H129">
         <v>60</v>
       </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
       <c r="O129">
         <f>SUM(C129:N129)</f>
-        <v>80</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B130">
         <v>4</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D130">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -5363,22 +5819,25 @@
         <v>0</v>
       </c>
       <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
         <v>0</v>
       </c>
       <c r="O130">
         <f>SUM(C130:N130)</f>
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="B131">
         <v>4</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -5387,31 +5846,34 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
         <v>0</v>
       </c>
       <c r="O131">
         <f>SUM(C131:N131)</f>
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B132">
         <v>4</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D132">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -5423,25 +5885,28 @@
         <v>0</v>
       </c>
       <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
         <v>0</v>
       </c>
       <c r="O132">
         <f>SUM(C132:N132)</f>
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B133">
         <v>4</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D133">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -5453,22 +5918,25 @@
         <v>0</v>
       </c>
       <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
         <v>0</v>
       </c>
       <c r="O133">
         <f>SUM(C133:N133)</f>
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="B134">
         <v>4</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -5480,25 +5948,28 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
         <v>0</v>
       </c>
       <c r="O134">
         <f>SUM(C134:N134)</f>
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="B135">
         <v>4</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -5510,25 +5981,28 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
         <v>0</v>
       </c>
       <c r="O135">
         <f>SUM(C135:N135)</f>
-        <v>69</v>
+        <v>120</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="B136">
         <v>4</v>
       </c>
       <c r="C136">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -5537,22 +6011,25 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
         <v>0</v>
       </c>
       <c r="O136">
         <f>SUM(C136:N136)</f>
-        <v>66</v>
+        <v>101</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B137">
         <v>4</v>
@@ -5561,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -5573,71 +6050,80 @@
         <v>0</v>
       </c>
       <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
         <v>0</v>
       </c>
       <c r="O137">
         <f>SUM(C137:N137)</f>
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="B138">
         <v>4</v>
       </c>
       <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>36</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
         <v>60</v>
       </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
+      <c r="I138">
         <v>0</v>
       </c>
       <c r="O138">
         <f>SUM(C138:N138)</f>
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="B139">
         <v>4</v>
       </c>
       <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>36</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
         <v>60</v>
       </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
+      <c r="I139">
         <v>0</v>
       </c>
       <c r="O139">
         <f>SUM(C139:N139)</f>
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
@@ -5665,44 +6151,50 @@
       <c r="H140">
         <v>0</v>
       </c>
+      <c r="I140">
+        <v>36</v>
+      </c>
       <c r="O140">
         <f>SUM(C140:N140)</f>
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="B141">
         <v>4</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D141">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E141">
         <v>0</v>
       </c>
       <c r="F141">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141">
+        <v>30</v>
+      </c>
+      <c r="I141">
         <v>0</v>
       </c>
       <c r="O141">
         <f>SUM(C141:N141)</f>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="B142">
         <v>4</v>
@@ -5711,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -5723,16 +6215,19 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
       </c>
       <c r="O142">
         <f>SUM(C142:N142)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="B143">
         <v>4</v>
@@ -5747,31 +6242,34 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
       </c>
       <c r="O143">
         <f>SUM(C143:N143)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B144">
         <v>4</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D144">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -5783,16 +6281,19 @@
         <v>0</v>
       </c>
       <c r="H144">
+        <v>60</v>
+      </c>
+      <c r="I144">
         <v>0</v>
       </c>
       <c r="O144">
         <f>SUM(C144:N144)</f>
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="B145">
         <v>4</v>
@@ -5801,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -5810,25 +6311,28 @@
         <v>0</v>
       </c>
       <c r="G145">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
         <v>0</v>
       </c>
       <c r="O145">
         <f>SUM(C145:N145)</f>
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="B146">
         <v>4</v>
       </c>
       <c r="C146">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -5837,22 +6341,25 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
       <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
         <v>0</v>
       </c>
       <c r="O146">
         <f>SUM(C146:N146)</f>
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="B147">
         <v>4</v>
@@ -5861,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -5870,19 +6377,22 @@
         <v>0</v>
       </c>
       <c r="G147">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
       </c>
       <c r="O147">
         <f>SUM(C147:N147)</f>
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B148">
         <v>4</v>
@@ -5891,10 +6401,10 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E148">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -5903,16 +6413,19 @@
         <v>0</v>
       </c>
       <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
         <v>0</v>
       </c>
       <c r="O148">
         <f>SUM(C148:N148)</f>
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="B149">
         <v>4</v>
@@ -5924,25 +6437,28 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F149">
         <v>0</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
         <v>0</v>
       </c>
       <c r="O149">
         <f>SUM(C149:N149)</f>
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B150">
         <v>4</v>
@@ -5957,28 +6473,31 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
         <v>0</v>
       </c>
       <c r="O150">
         <f>SUM(C150:N150)</f>
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="B151">
         <v>4</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -5987,22 +6506,25 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
       <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
         <v>0</v>
       </c>
       <c r="O151">
         <f>SUM(C151:N151)</f>
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B152">
         <v>4</v>
@@ -6011,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -6023,25 +6545,28 @@
         <v>0</v>
       </c>
       <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
         <v>0</v>
       </c>
       <c r="O152">
         <f>SUM(C152:N152)</f>
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B153">
         <v>4</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D153">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -6053,28 +6578,31 @@
         <v>0</v>
       </c>
       <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
         <v>0</v>
       </c>
       <c r="O153">
         <f>SUM(C153:N153)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="B154">
         <v>4</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D154">
         <v>0</v>
       </c>
       <c r="E154">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -6083,16 +6611,19 @@
         <v>0</v>
       </c>
       <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
         <v>0</v>
       </c>
       <c r="O154">
         <f>SUM(C154:N154)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B155">
         <v>4</v>
@@ -6101,28 +6632,31 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
         <v>36</v>
       </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
         <v>0</v>
       </c>
       <c r="O155">
         <f>SUM(C155:N155)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="B156">
         <v>4</v>
@@ -6134,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -6143,16 +6677,19 @@
         <v>0</v>
       </c>
       <c r="H156">
+        <v>60</v>
+      </c>
+      <c r="I156">
         <v>0</v>
       </c>
       <c r="O156">
         <f>SUM(C156:N156)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -6167,22 +6704,25 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G157">
         <v>0</v>
       </c>
       <c r="H157">
+        <v>60</v>
+      </c>
+      <c r="I157">
         <v>0</v>
       </c>
       <c r="O157">
         <f>SUM(C157:N157)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="B158">
         <v>4</v>
@@ -6191,28 +6731,31 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E158">
         <v>0</v>
       </c>
       <c r="F158">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
       <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
         <v>0</v>
       </c>
       <c r="O158">
         <f>SUM(C158:N158)</f>
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>4</v>
@@ -6227,22 +6770,25 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
         <v>0</v>
       </c>
       <c r="O159">
         <f>SUM(C159:N159)</f>
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="B160">
         <v>4</v>
@@ -6257,28 +6803,31 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
       <c r="H160">
         <v>0</v>
+      </c>
+      <c r="I160">
+        <v>55</v>
       </c>
       <c r="O160">
         <f>SUM(C160:N160)</f>
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="B161">
         <v>4</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -6287,22 +6836,25 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G161">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
         <v>0</v>
       </c>
       <c r="O161">
         <f>SUM(C161:N161)</f>
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>4</v>
@@ -6314,25 +6866,28 @@
         <v>0</v>
       </c>
       <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
         <v>12</v>
       </c>
-      <c r="F162">
-        <v>0</v>
-      </c>
-      <c r="G162">
-        <v>0</v>
-      </c>
       <c r="H162">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
       </c>
       <c r="O162">
         <f>SUM(C162:N162)</f>
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -6344,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -6353,16 +6908,19 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>50</v>
       </c>
       <c r="O163">
         <f>SUM(C163:N163)</f>
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -6371,10 +6929,10 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E164">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -6383,16 +6941,19 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
       </c>
       <c r="O164">
         <f>SUM(C164:N164)</f>
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -6401,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -6414,15 +6975,18 @@
       </c>
       <c r="H165">
         <v>0</v>
+      </c>
+      <c r="I165">
+        <v>36</v>
       </c>
       <c r="O165">
         <f>SUM(C165:N165)</f>
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="B166">
         <v>4</v>
@@ -6431,10 +6995,10 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -6443,16 +7007,19 @@
         <v>0</v>
       </c>
       <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
         <v>0</v>
       </c>
       <c r="O166">
         <f>SUM(C166:N166)</f>
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B167">
         <v>4</v>
@@ -6467,28 +7034,31 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G167">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
         <v>0</v>
       </c>
       <c r="O167">
         <f>SUM(C167:N167)</f>
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="B168">
         <v>4</v>
       </c>
       <c r="C168">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -6497,22 +7067,25 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G168">
         <v>0</v>
       </c>
       <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
         <v>0</v>
       </c>
       <c r="O168">
         <f>SUM(C168:N168)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B169">
         <v>4</v>
@@ -6521,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -6533,16 +7106,19 @@
         <v>0</v>
       </c>
       <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
         <v>0</v>
       </c>
       <c r="O169">
         <f>SUM(C169:N169)</f>
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="B170">
         <v>4</v>
@@ -6551,10 +7127,10 @@
         <v>0</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E170">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -6563,16 +7139,19 @@
         <v>0</v>
       </c>
       <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
         <v>0</v>
       </c>
       <c r="O170">
         <f>SUM(C170:N170)</f>
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="B171">
         <v>4</v>
@@ -6581,10 +7160,10 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -6593,16 +7172,19 @@
         <v>0</v>
       </c>
       <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
         <v>0</v>
       </c>
       <c r="O171">
         <f>SUM(C171:N171)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="B172">
         <v>4</v>
@@ -6611,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -6623,16 +7205,19 @@
         <v>0</v>
       </c>
       <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
         <v>0</v>
       </c>
       <c r="O172">
         <f>SUM(C172:N172)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="B173">
         <v>4</v>
@@ -6641,28 +7226,31 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E173">
         <v>0</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G173">
         <v>0</v>
       </c>
       <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
         <v>0</v>
       </c>
       <c r="O173">
         <f>SUM(C173:N173)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="B174">
         <v>4</v>
@@ -6671,28 +7259,31 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E174">
         <v>0</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G174">
         <v>0</v>
       </c>
       <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
         <v>0</v>
       </c>
       <c r="O174">
         <f>SUM(C174:N174)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="B175">
         <v>4</v>
@@ -6701,28 +7292,31 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E175">
         <v>0</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G175">
         <v>0</v>
       </c>
       <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
         <v>0</v>
       </c>
       <c r="O175">
         <f>SUM(C175:N175)</f>
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="B176">
         <v>4</v>
@@ -6731,33 +7325,828 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E176">
         <v>0</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G176">
         <v>0</v>
       </c>
       <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
         <v>0</v>
       </c>
       <c r="O176">
         <f>SUM(C176:N176)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>36</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <f>SUM(C177:N177)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>207</v>
+      </c>
+      <c r="B178">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>36</v>
+      </c>
+      <c r="O178">
+        <f>SUM(C178:N178)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>206</v>
+      </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>36</v>
+      </c>
+      <c r="O179">
+        <f>SUM(C179:N179)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>205</v>
+      </c>
+      <c r="B180">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>36</v>
+      </c>
+      <c r="O180">
+        <f>SUM(C180:N180)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>208</v>
+      </c>
+      <c r="B181">
+        <v>4</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>35</v>
+      </c>
+      <c r="O181">
+        <f>SUM(C181:N181)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>139</v>
+      </c>
+      <c r="B182">
+        <v>4</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>12</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>20</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <f>SUM(C182:N182)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>140</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>12</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>20</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <f>SUM(C183:N183)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>141</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>12</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>20</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <f>SUM(C184:N184)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>101</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>30</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <f>SUM(C185:N185)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>105</v>
+      </c>
+      <c r="B186">
+        <v>4</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>24</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <f>SUM(C186:N186)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>183</v>
+      </c>
+      <c r="B187">
+        <v>4</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>24</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <f>SUM(C187:N187)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>209</v>
+      </c>
+      <c r="B188">
+        <v>4</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>20</v>
+      </c>
+      <c r="O188">
+        <f>SUM(C188:N188)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>67</v>
+      </c>
+      <c r="B189">
+        <v>4</v>
+      </c>
+      <c r="C189">
+        <v>20</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <f>SUM(C189:N189)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>210</v>
+      </c>
+      <c r="B190">
+        <v>4</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>15</v>
+      </c>
+      <c r="O190">
+        <f>SUM(C190:N190)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>106</v>
+      </c>
+      <c r="B191">
+        <v>4</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>15</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <f>SUM(C191:N191)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>138</v>
+      </c>
+      <c r="B192">
+        <v>4</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>15</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <f>SUM(C192:N192)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>212</v>
+      </c>
+      <c r="B193">
+        <v>4</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>12</v>
+      </c>
+      <c r="O193">
+        <f>SUM(C193:N193)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>211</v>
+      </c>
+      <c r="B194">
+        <v>4</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>12</v>
+      </c>
+      <c r="O194">
+        <f>SUM(C194:N194)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>107</v>
+      </c>
+      <c r="B195">
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>12</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <f>SUM(C195:N195)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>108</v>
+      </c>
+      <c r="B196">
+        <v>4</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>12</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <f>SUM(C196:N196)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>109</v>
+      </c>
+      <c r="B197">
+        <v>4</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>12</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <f>SUM(C197:N197)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>110</v>
+      </c>
+      <c r="B198">
+        <v>4</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>12</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <f>SUM(C198:N198)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>213</v>
+      </c>
+      <c r="B199">
+        <v>4</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
         <v>5</v>
       </c>
+      <c r="O199">
+        <f>SUM(C199:N199)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>112</v>
+      </c>
+      <c r="B200">
+        <v>4</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>5</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <f>SUM(C200:N200)</f>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O176">
-    <sortCondition descending="1" ref="B2:B176"/>
-    <sortCondition descending="1" ref="O2:O176"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O200">
+    <sortCondition descending="1" ref="B2:B200"/>
+    <sortCondition descending="1" ref="O2:O200"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="O2:O176" formulaRange="1"/>
+    <ignoredError sqref="O2:O200" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Classics_Squad/2022/Spring_Classics_M.xlsx
+++ b/Classics_Squad/2022/Spring_Classics_M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75ca376656bd96ab/Documents/Velogames Ultimate Team/Classics_Squad/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1472" documentId="8_{48380F6D-8971-4F5F-99EA-E334BF96AAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9DE55F7-67F3-44BC-B521-6FD5EB8E00EB}"/>
+  <xr:revisionPtr revIDLastSave="1893" documentId="8_{48380F6D-8971-4F5F-99EA-E334BF96AAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F789ED2A-1566-4EE9-A53B-3BB86D186A6D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>Names</t>
   </si>
@@ -674,6 +674,66 @@
   </si>
   <si>
     <t>Daan Hoole</t>
+  </si>
+  <si>
+    <t>Benoit Cosnefroy</t>
+  </si>
+  <si>
+    <t>Marc Hirschi</t>
+  </si>
+  <si>
+    <t>Jakob Fuglsang</t>
+  </si>
+  <si>
+    <t>Tim Wellens</t>
+  </si>
+  <si>
+    <t>Warren Barguil</t>
+  </si>
+  <si>
+    <t>Tom Dumoulin</t>
+  </si>
+  <si>
+    <t>Aaron Van Poucke</t>
+  </si>
+  <si>
+    <t>Lilian Calmejane</t>
+  </si>
+  <si>
+    <t>Luke Rowe</t>
+  </si>
+  <si>
+    <t>Ide Schelling</t>
+  </si>
+  <si>
+    <t>Maxim Van Gils</t>
+  </si>
+  <si>
+    <t>Dorian Godon</t>
+  </si>
+  <si>
+    <t>Toms Skujins</t>
+  </si>
+  <si>
+    <t>Alexander Kamp</t>
+  </si>
+  <si>
+    <t>Owain Doull</t>
+  </si>
+  <si>
+    <t>Laurens De Plus</t>
+  </si>
+  <si>
+    <t>Luca Rastelli</t>
+  </si>
+  <si>
+    <t>Mikael Cherel</t>
+  </si>
+  <si>
+    <t>Larry Warbasse</t>
+  </si>
+  <si>
+    <t>Jos Van Emden</t>
   </si>
 </sst>
 </file>
@@ -1514,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O200"/>
+  <dimension ref="A1:O220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,6 +1660,9 @@
       <c r="I2">
         <v>0</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
       <c r="O2">
         <f>SUM(C2:N2)</f>
         <v>790</v>
@@ -1633,6 +1696,9 @@
       <c r="I3">
         <v>0</v>
       </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
       <c r="O3">
         <f>SUM(C3:N3)</f>
         <v>717</v>
@@ -1666,9 +1732,12 @@
       <c r="I4">
         <v>0</v>
       </c>
+      <c r="J4">
+        <v>260</v>
+      </c>
       <c r="O4">
         <f>SUM(C4:N4)</f>
-        <v>1202</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1699,6 +1768,9 @@
       <c r="I5">
         <v>0</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
       <c r="O5">
         <f>SUM(C5:N5)</f>
         <v>84</v>
@@ -1732,9 +1804,12 @@
       <c r="I6">
         <v>0</v>
       </c>
+      <c r="J6">
+        <v>200</v>
+      </c>
       <c r="O6">
         <f>SUM(C6:N6)</f>
-        <v>482</v>
+        <v>682</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1765,9 +1840,12 @@
       <c r="I7">
         <v>0</v>
       </c>
+      <c r="J7">
+        <v>220</v>
+      </c>
       <c r="O7">
         <f>SUM(C7:N7)</f>
-        <v>230</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1798,6 +1876,9 @@
       <c r="I8">
         <v>0</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
       <c r="O8">
         <f>SUM(C8:N8)</f>
         <v>671</v>
@@ -1805,68 +1886,74 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="D9">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I9">
         <v>0</v>
+      </c>
+      <c r="J9">
+        <v>200</v>
       </c>
       <c r="O9">
         <f>SUM(C9:N9)</f>
-        <v>524</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B10">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
       <c r="O10">
         <f>SUM(C10:N10)</f>
-        <v>460</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1897,20 +1984,23 @@
       <c r="I11">
         <v>0</v>
       </c>
+      <c r="J11">
+        <v>82</v>
+      </c>
       <c r="O11">
         <f>SUM(C11:N11)</f>
-        <v>245</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="B12">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1922,28 +2012,31 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
+      </c>
+      <c r="J12">
+        <v>84</v>
       </c>
       <c r="O12">
         <f>SUM(C12:N12)</f>
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1952,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1961,22 +2054,25 @@
         <v>0</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
       <c r="O13">
         <f>SUM(C13:N13)</f>
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1985,25 +2081,28 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>0</v>
       </c>
       <c r="O14">
         <f>SUM(C14:N14)</f>
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -2021,17 +2120,20 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>0</v>
       </c>
       <c r="O15">
         <f>SUM(C15:N15)</f>
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2062,47 +2164,53 @@
       <c r="I16">
         <v>0</v>
       </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
       <c r="O16">
         <f>SUM(C16:N16)</f>
-        <v>966</v>
+        <v>986</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
       <c r="C17">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="F17">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="H17">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="I17">
         <v>0</v>
+      </c>
+      <c r="J17">
+        <v>180</v>
       </c>
       <c r="O17">
         <f>SUM(C17:N17)</f>
-        <v>796</v>
+        <v>958</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -2114,61 +2222,67 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G18">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="H18">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="I18">
         <v>0</v>
+      </c>
+      <c r="J18">
+        <v>300</v>
       </c>
       <c r="O18">
         <f>SUM(C18:N18)</f>
-        <v>778</v>
+        <v>952</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="F19">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="I19">
-        <v>394</v>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>120</v>
       </c>
       <c r="O19">
         <f>SUM(C19:N19)</f>
-        <v>710</v>
+        <v>916</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -2177,64 +2291,70 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="F20">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="I20">
-        <v>264</v>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>114</v>
       </c>
       <c r="O20">
         <f>SUM(C20:N20)</f>
-        <v>664</v>
+        <v>762</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>10</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="G21">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="I21">
+        <v>394</v>
+      </c>
+      <c r="J21">
         <v>0</v>
       </c>
       <c r="O21">
         <f>SUM(C21:N21)</f>
-        <v>652</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -2243,26 +2363,29 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E22">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G22">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="I22">
+        <v>264</v>
+      </c>
+      <c r="J22">
         <v>0</v>
       </c>
       <c r="O22">
         <f>SUM(C22:N22)</f>
-        <v>648</v>
+        <v>664</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2293,6 +2416,9 @@
       <c r="I23">
         <v>0</v>
       </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
       <c r="O23">
         <f>SUM(C23:N23)</f>
         <v>549</v>
@@ -2326,6 +2452,9 @@
       <c r="I24">
         <v>274</v>
       </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
       <c r="O24">
         <f>SUM(C24:N24)</f>
         <v>450</v>
@@ -2333,7 +2462,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -2342,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2357,49 +2486,55 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>258</v>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>410</v>
       </c>
       <c r="O25">
         <f>SUM(C25:N25)</f>
-        <v>328</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="I26">
         <v>0</v>
+      </c>
+      <c r="J26">
+        <v>150</v>
       </c>
       <c r="O26">
         <f>SUM(C26:N26)</f>
-        <v>221</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -2408,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2423,61 +2558,67 @@
         <v>0</v>
       </c>
       <c r="I27">
+        <v>258</v>
+      </c>
+      <c r="J27">
         <v>0</v>
       </c>
       <c r="O27">
         <f>SUM(C27:N27)</f>
-        <v>220</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>220</v>
+        <v>66</v>
       </c>
       <c r="I28">
         <v>0</v>
+      </c>
+      <c r="J28">
+        <v>72</v>
       </c>
       <c r="O28">
         <f>SUM(C28:N28)</f>
-        <v>220</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B29">
         <v>10</v>
       </c>
       <c r="C29">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="E29">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2489,16 +2630,19 @@
         <v>0</v>
       </c>
       <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>0</v>
       </c>
       <c r="O29">
         <f>SUM(C29:N29)</f>
-        <v>146</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -2522,28 +2666,31 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>160</v>
       </c>
       <c r="O30">
         <f>SUM(C30:N30)</f>
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>10</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2555,16 +2702,19 @@
         <v>0</v>
       </c>
       <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>0</v>
       </c>
       <c r="O31">
         <f>SUM(C31:N31)</f>
-        <v>50</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="B32">
         <v>10</v>
@@ -2573,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2589,15 +2739,18 @@
       </c>
       <c r="I32">
         <v>0</v>
+      </c>
+      <c r="J32">
+        <v>90</v>
       </c>
       <c r="O32">
         <f>SUM(C32:N32)</f>
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -2621,31 +2774,34 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>80</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
       </c>
       <c r="O33">
         <f>SUM(C33:N33)</f>
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2655,18 +2811,21 @@
       </c>
       <c r="I34">
         <v>0</v>
+      </c>
+      <c r="J34">
+        <v>66</v>
       </c>
       <c r="O34">
         <f>SUM(C34:N34)</f>
-        <v>698</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2675,40 +2834,43 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
+      </c>
+      <c r="J35">
+        <v>60</v>
       </c>
       <c r="O35">
         <f>SUM(C35:N35)</f>
-        <v>648</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2717,25 +2879,28 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>364</v>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
       </c>
       <c r="O36">
         <f>SUM(C36:N36)</f>
-        <v>499</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2744,40 +2909,43 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="J37">
+        <v>36</v>
       </c>
       <c r="O37">
         <f>SUM(C37:N37)</f>
-        <v>466</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C38">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2786,115 +2954,127 @@
         <v>0</v>
       </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>0</v>
       </c>
       <c r="O38">
         <f>SUM(C38:N38)</f>
-        <v>446</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="B39">
         <v>8</v>
       </c>
       <c r="C39">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F39">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H39">
-        <v>114</v>
+        <v>360</v>
       </c>
       <c r="I39">
         <v>0</v>
+      </c>
+      <c r="J39">
+        <v>110</v>
       </c>
       <c r="O39">
         <f>SUM(C39:N39)</f>
-        <v>403</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="B40">
         <v>8</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="G40">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>99</v>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
       </c>
       <c r="O40">
         <f>SUM(C40:N40)</f>
-        <v>403</v>
+        <v>698</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="B41">
         <v>8</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
+      </c>
+      <c r="J41">
+        <v>520</v>
       </c>
       <c r="O41">
         <f>SUM(C41:N41)</f>
-        <v>326</v>
+        <v>610</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -2903,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2915,25 +3095,28 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I42">
-        <v>304</v>
+        <v>364</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
       </c>
       <c r="O42">
         <f>SUM(C42:N42)</f>
-        <v>304</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="B43">
         <v>8</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2942,40 +3125,43 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>263</v>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>12</v>
       </c>
       <c r="O43">
         <f>SUM(C43:N43)</f>
-        <v>263</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B44">
         <v>8</v>
       </c>
       <c r="C44">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="D44">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2984,49 +3170,55 @@
         <v>0</v>
       </c>
       <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>0</v>
       </c>
       <c r="O44">
         <f>SUM(C44:N44)</f>
-        <v>224</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="B45">
         <v>8</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F45">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="G45">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>0</v>
       </c>
       <c r="O45">
         <f>SUM(C45:N45)</f>
-        <v>216</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -3035,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3044,55 +3236,61 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
+        <v>99</v>
+      </c>
+      <c r="J46">
         <v>0</v>
       </c>
       <c r="O46">
         <f>SUM(C46:N46)</f>
-        <v>180</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="B47">
         <v>8</v>
       </c>
       <c r="C47">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I47">
         <v>0</v>
+      </c>
+      <c r="J47">
+        <v>20</v>
       </c>
       <c r="O47">
         <f>SUM(C47:N47)</f>
-        <v>160</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -3101,13 +3299,13 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3116,16 +3314,19 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>45</v>
+        <v>304</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
       </c>
       <c r="O48">
         <f>SUM(C48:N48)</f>
-        <v>159</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="B49">
         <v>8</v>
@@ -3134,10 +3335,10 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3149,16 +3350,19 @@
         <v>0</v>
       </c>
       <c r="I49">
+        <v>263</v>
+      </c>
+      <c r="J49">
         <v>0</v>
       </c>
       <c r="O49">
         <f>SUM(C49:N49)</f>
-        <v>140</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B50">
         <v>8</v>
@@ -3170,43 +3374,46 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="G50">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="H50">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
+      </c>
+      <c r="J50">
+        <v>24</v>
       </c>
       <c r="O50">
         <f>SUM(C50:N50)</f>
-        <v>131</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="B51">
         <v>8</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3215,61 +3422,67 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
       </c>
       <c r="O51">
         <f>SUM(C51:N51)</f>
-        <v>100</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="B52">
         <v>8</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F52">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
+      </c>
+      <c r="J52">
+        <v>100</v>
       </c>
       <c r="O52">
         <f>SUM(C52:N52)</f>
-        <v>98</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B53">
         <v>8</v>
       </c>
       <c r="C53">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E53">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3281,22 +3494,25 @@
         <v>0</v>
       </c>
       <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
         <v>0</v>
       </c>
       <c r="O53">
         <f>SUM(C53:N53)</f>
-        <v>91</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B54">
         <v>8</v>
       </c>
       <c r="C54">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3314,16 +3530,19 @@
         <v>0</v>
       </c>
       <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
         <v>0</v>
       </c>
       <c r="O54">
         <f>SUM(C54:N54)</f>
-        <v>90</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="B55">
         <v>8</v>
@@ -3332,43 +3551,46 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I55">
+        <v>45</v>
+      </c>
+      <c r="J55">
         <v>0</v>
       </c>
       <c r="O55">
         <f>SUM(C55:N55)</f>
-        <v>74</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B56">
         <v>8</v>
       </c>
       <c r="C56">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3380,16 +3602,19 @@
         <v>0</v>
       </c>
       <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
         <v>0</v>
       </c>
       <c r="O56">
         <f>SUM(C56:N56)</f>
-        <v>72</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -3401,67 +3626,73 @@
         <v>0</v>
       </c>
       <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>61</v>
+      </c>
+      <c r="H57">
         <v>60</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
       <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <v>0</v>
       </c>
       <c r="O57">
         <f>SUM(C57:N57)</f>
-        <v>60</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="B58">
         <v>8</v>
       </c>
       <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>60</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>40</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>12</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
+      <c r="J58">
         <v>0</v>
       </c>
       <c r="O58">
         <f>SUM(C58:N58)</f>
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="B59">
         <v>8</v>
       </c>
       <c r="C59">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3470,25 +3701,28 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
         <v>0</v>
       </c>
       <c r="O59">
         <f>SUM(C59:N59)</f>
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -3503,31 +3737,34 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G60">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
         <v>0</v>
       </c>
       <c r="O60">
         <f>SUM(C60:N60)</f>
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B61">
         <v>8</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3545,16 +3782,19 @@
         <v>0</v>
       </c>
       <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
         <v>0</v>
       </c>
       <c r="O61">
         <f>SUM(C61:N61)</f>
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -3566,34 +3806,37 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
         <v>0</v>
       </c>
       <c r="O62">
         <f>SUM(C62:N62)</f>
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="B63">
         <v>8</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3602,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3611,22 +3854,25 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
       </c>
       <c r="O63">
         <f>SUM(C63:N63)</f>
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B64">
         <v>8</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3644,19 +3890,22 @@
         <v>0</v>
       </c>
       <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
         <v>0</v>
       </c>
       <c r="O64">
         <f>SUM(C64:N64)</f>
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3671,25 +3920,28 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H65">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
         <v>0</v>
       </c>
       <c r="O65">
         <f>SUM(C65:N65)</f>
-        <v>350</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3701,31 +3953,34 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
+      </c>
+      <c r="J66">
+        <v>26</v>
       </c>
       <c r="O66">
         <f>SUM(C66:N66)</f>
-        <v>288</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3743,52 +3998,58 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>284</v>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
       </c>
       <c r="O67">
         <f>SUM(C67:N67)</f>
-        <v>284</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C68">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H68">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
         <v>0</v>
       </c>
       <c r="O68">
         <f>SUM(C68:N68)</f>
-        <v>273</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3797,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3806,28 +4067,31 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I69">
+        <v>12</v>
+      </c>
+      <c r="J69">
         <v>0</v>
       </c>
       <c r="O69">
         <f>SUM(C69:N69)</f>
-        <v>226</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
         <v>6</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
       <c r="D70">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3842,16 +4106,19 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
       </c>
       <c r="O70">
         <f>SUM(C70:N70)</f>
-        <v>215</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -3860,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3869,55 +4136,61 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>96</v>
+        <v>320</v>
       </c>
       <c r="I71">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
       </c>
       <c r="O71">
         <f>SUM(C71:N71)</f>
-        <v>201</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="B72">
         <v>6</v>
       </c>
       <c r="C72">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
         <v>0</v>
       </c>
       <c r="O72">
         <f>SUM(C72:N72)</f>
-        <v>193</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -3926,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3935,55 +4208,61 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
+        <v>284</v>
+      </c>
+      <c r="J73">
         <v>0</v>
       </c>
       <c r="O73">
         <f>SUM(C73:N73)</f>
-        <v>184</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="B74">
         <v>6</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E74">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="F74">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
         <v>0</v>
       </c>
       <c r="O74">
         <f>SUM(C74:N74)</f>
-        <v>177</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -3992,31 +4271,34 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
+      </c>
+      <c r="J75">
+        <v>80</v>
       </c>
       <c r="O75">
         <f>SUM(C75:N75)</f>
-        <v>150</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -4028,28 +4310,31 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="F76">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
         <v>0</v>
       </c>
       <c r="O76">
         <f>SUM(C76:N76)</f>
-        <v>149</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -4058,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4067,22 +4352,25 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I77">
+        <v>85</v>
+      </c>
+      <c r="J77">
         <v>0</v>
       </c>
       <c r="O77">
         <f>SUM(C77:N77)</f>
-        <v>144</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -4091,46 +4379,49 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E78">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>96</v>
+      </c>
+      <c r="I78">
         <v>65</v>
       </c>
-      <c r="H78">
-        <v>20</v>
-      </c>
-      <c r="I78">
+      <c r="J78">
         <v>0</v>
       </c>
       <c r="O78">
         <f>SUM(C78:N78)</f>
-        <v>137</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B79">
         <v>6</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D79">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -4139,16 +4430,19 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
       </c>
       <c r="O79">
         <f>SUM(C79:N79)</f>
-        <v>125</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -4157,31 +4451,34 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E80">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
         <v>0</v>
       </c>
       <c r="O80">
         <f>SUM(C80:N80)</f>
-        <v>96</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -4190,31 +4487,34 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
         <v>0</v>
       </c>
       <c r="O81">
         <f>SUM(C81:N81)</f>
-        <v>96</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -4223,31 +4523,34 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="I82">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
       </c>
       <c r="O82">
         <f>SUM(C82:N82)</f>
-        <v>96</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -4256,64 +4559,70 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E83">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I83">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
       </c>
       <c r="O83">
         <f>SUM(C83:N83)</f>
-        <v>94</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="B84">
         <v>6</v>
       </c>
       <c r="C84">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F84">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
         <v>0</v>
       </c>
       <c r="O84">
         <f>SUM(C84:N84)</f>
-        <v>88</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -4322,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4337,16 +4646,19 @@
         <v>0</v>
       </c>
       <c r="I85">
+        <v>30</v>
+      </c>
+      <c r="J85">
         <v>0</v>
       </c>
       <c r="O85">
         <f>SUM(C85:N85)</f>
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -4364,22 +4676,25 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
+      </c>
+      <c r="J86">
+        <v>120</v>
       </c>
       <c r="O86">
         <f>SUM(C86:N86)</f>
-        <v>85</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -4391,28 +4706,31 @@
         <v>0</v>
       </c>
       <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
         <v>60</v>
       </c>
-      <c r="F87">
-        <v>24</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
       <c r="I87">
         <v>0</v>
+      </c>
+      <c r="J87">
+        <v>40</v>
       </c>
       <c r="O87">
         <f>SUM(C87:N87)</f>
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -4421,31 +4739,34 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
         <v>0</v>
       </c>
       <c r="O88">
         <f>SUM(C88:N88)</f>
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -4454,31 +4775,34 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E89">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
         <v>0</v>
       </c>
       <c r="O89">
         <f>SUM(C89:N89)</f>
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -4490,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>36</v>
@@ -4499,19 +4823,22 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I90">
+        <v>36</v>
+      </c>
+      <c r="J90">
         <v>0</v>
       </c>
       <c r="O90">
         <f>SUM(C90:N90)</f>
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -4523,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4535,31 +4862,34 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
       </c>
       <c r="O91">
         <f>SUM(C91:N91)</f>
-        <v>61</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B92">
         <v>6</v>
       </c>
       <c r="C92">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -4568,25 +4898,28 @@
         <v>0</v>
       </c>
       <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
         <v>0</v>
       </c>
       <c r="O92">
         <f>SUM(C92:N92)</f>
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B93">
         <v>6</v>
       </c>
       <c r="C93">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4601,16 +4934,19 @@
         <v>0</v>
       </c>
       <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
         <v>0</v>
       </c>
       <c r="O93">
         <f>SUM(C93:N93)</f>
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B94">
         <v>6</v>
@@ -4628,22 +4964,25 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H94">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
         <v>0</v>
       </c>
       <c r="O94">
         <f>SUM(C94:N94)</f>
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="B95">
         <v>6</v>
@@ -4655,28 +4994,31 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
         <v>0</v>
       </c>
       <c r="O95">
         <f>SUM(C95:N95)</f>
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -4685,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4700,16 +5042,19 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
       </c>
       <c r="O96">
         <f>SUM(C96:N96)</f>
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B97">
         <v>6</v>
@@ -4721,10 +5066,10 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F97">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -4733,16 +5078,19 @@
         <v>0</v>
       </c>
       <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
         <v>0</v>
       </c>
       <c r="O97">
         <f>SUM(C97:N97)</f>
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="B98">
         <v>6</v>
@@ -4760,22 +5108,25 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
+      </c>
+      <c r="J98">
+        <v>70</v>
       </c>
       <c r="O98">
         <f>SUM(C98:N98)</f>
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B99">
         <v>6</v>
@@ -4787,34 +5138,37 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F99">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G99">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
         <v>0</v>
       </c>
       <c r="O99">
         <f>SUM(C99:N99)</f>
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="B100">
         <v>6</v>
       </c>
       <c r="C100">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4823,37 +5177,40 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
+      </c>
+      <c r="J100">
+        <v>20</v>
       </c>
       <c r="O100">
         <f>SUM(C100:N100)</f>
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B101">
         <v>6</v>
       </c>
       <c r="C101">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -4865,25 +5222,28 @@
         <v>0</v>
       </c>
       <c r="I101">
+        <v>25</v>
+      </c>
+      <c r="J101">
         <v>0</v>
       </c>
       <c r="O101">
         <f>SUM(C101:N101)</f>
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B102">
         <v>6</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D102">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4898,22 +5258,25 @@
         <v>0</v>
       </c>
       <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
         <v>0</v>
       </c>
       <c r="O102">
         <f>SUM(C102:N102)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="B103">
         <v>6</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4922,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -4931,16 +5294,19 @@
         <v>0</v>
       </c>
       <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
         <v>0</v>
       </c>
       <c r="O103">
         <f>SUM(C103:N103)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="B104">
         <v>6</v>
@@ -4955,25 +5321,28 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
       <c r="O104">
         <f>SUM(C104:N104)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B105">
         <v>6</v>
@@ -4997,16 +5366,19 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
       </c>
       <c r="O105">
         <f>SUM(C105:N105)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="B106">
         <v>6</v>
@@ -5015,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -5031,15 +5403,18 @@
       </c>
       <c r="I106">
         <v>0</v>
+      </c>
+      <c r="J106">
+        <v>60</v>
       </c>
       <c r="O106">
         <f>SUM(C106:N106)</f>
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="B107">
         <v>6</v>
@@ -5054,25 +5429,28 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
+      </c>
+      <c r="J107">
+        <v>60</v>
       </c>
       <c r="O107">
         <f>SUM(C107:N107)</f>
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="B108">
         <v>6</v>
@@ -5081,13 +5459,13 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -5096,16 +5474,19 @@
         <v>0</v>
       </c>
       <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
         <v>0</v>
       </c>
       <c r="O108">
         <f>SUM(C108:N108)</f>
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B109">
         <v>6</v>
@@ -5123,22 +5504,25 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
         <v>0</v>
       </c>
       <c r="O109">
         <f>SUM(C109:N109)</f>
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="B110">
         <v>6</v>
@@ -5162,25 +5546,28 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>48</v>
       </c>
       <c r="O110">
         <f>SUM(C110:N110)</f>
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B111">
         <v>6</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D111">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -5195,22 +5582,25 @@
         <v>0</v>
       </c>
       <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
         <v>0</v>
       </c>
       <c r="O111">
         <f>SUM(C111:N111)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="B112">
         <v>6</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -5228,22 +5618,25 @@
         <v>0</v>
       </c>
       <c r="I112">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
       </c>
       <c r="O112">
         <f>SUM(C112:N112)</f>
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="B113">
         <v>6</v>
       </c>
       <c r="C113">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -5262,24 +5655,27 @@
       </c>
       <c r="I113">
         <v>0</v>
+      </c>
+      <c r="J113">
+        <v>40</v>
       </c>
       <c r="O113">
         <f>SUM(C113:N113)</f>
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C114">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -5288,25 +5684,28 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
         <v>0</v>
       </c>
       <c r="O114">
         <f>SUM(C114:N114)</f>
-        <v>530</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B115">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -5315,31 +5714,34 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G115">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
         <v>0</v>
       </c>
       <c r="O115">
         <f>SUM(C115:N115)</f>
-        <v>385</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -5351,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -5360,19 +5762,22 @@
         <v>0</v>
       </c>
       <c r="I116">
-        <v>344</v>
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
       </c>
       <c r="O116">
         <f>SUM(C116:N116)</f>
-        <v>344</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -5381,37 +5786,40 @@
         <v>0</v>
       </c>
       <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
         <v>36</v>
       </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <v>278</v>
+      <c r="J117">
+        <v>0</v>
       </c>
       <c r="O117">
         <f>SUM(C117:N117)</f>
-        <v>314</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B118">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -5420,25 +5828,28 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
         <v>0</v>
       </c>
       <c r="O118">
         <f>SUM(C118:N118)</f>
-        <v>308</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -5450,40 +5861,43 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I119">
-        <v>294</v>
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
       </c>
       <c r="O119">
         <f>SUM(C119:N119)</f>
-        <v>294</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="B120">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -5492,19 +5906,22 @@
         <v>0</v>
       </c>
       <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
         <v>0</v>
       </c>
       <c r="O120">
         <f>SUM(C120:N120)</f>
-        <v>272</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="B121">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -5519,28 +5936,31 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>244</v>
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
       </c>
       <c r="O121">
         <f>SUM(C121:N121)</f>
-        <v>244</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="B122">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C122">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -5558,25 +5978,28 @@
         <v>0</v>
       </c>
       <c r="I122">
+        <v>24</v>
+      </c>
+      <c r="J122">
         <v>0</v>
       </c>
       <c r="O122">
         <f>SUM(C122:N122)</f>
-        <v>240</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B123">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C123">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -5591,19 +6014,22 @@
         <v>0</v>
       </c>
       <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
         <v>0</v>
       </c>
       <c r="O123">
         <f>SUM(C123:N123)</f>
-        <v>240</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="B124">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -5612,31 +6038,34 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
+      </c>
+      <c r="J124">
+        <v>18</v>
       </c>
       <c r="O124">
         <f>SUM(C124:N124)</f>
-        <v>168</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B125">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -5651,28 +6080,31 @@
         <v>0</v>
       </c>
       <c r="G125">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="I125">
+        <v>12</v>
+      </c>
+      <c r="J125">
         <v>0</v>
       </c>
       <c r="O125">
         <f>SUM(C125:N125)</f>
-        <v>144</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="B126">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -5681,31 +6113,34 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
         <v>0</v>
       </c>
       <c r="O126">
         <f>SUM(C126:N126)</f>
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B127">
         <v>4</v>
       </c>
       <c r="C127">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -5717,22 +6152,25 @@
         <v>0</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="I127">
         <v>0</v>
+      </c>
+      <c r="J127">
+        <v>130</v>
       </c>
       <c r="O127">
         <f>SUM(C127:N127)</f>
-        <v>140</v>
+        <v>660</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="B128">
         <v>4</v>
@@ -5744,28 +6182,31 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G128">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="H128">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I128">
         <v>0</v>
+      </c>
+      <c r="J128">
+        <v>60</v>
       </c>
       <c r="O128">
         <f>SUM(C128:N128)</f>
-        <v>132</v>
+        <v>445</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B129">
         <v>4</v>
@@ -5774,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -5783,34 +6224,37 @@
         <v>0</v>
       </c>
       <c r="G129">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I129">
+        <v>344</v>
+      </c>
+      <c r="J129">
         <v>0</v>
       </c>
       <c r="O129">
         <f>SUM(C129:N129)</f>
-        <v>132</v>
+        <v>344</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="B130">
         <v>4</v>
       </c>
       <c r="C130">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -5822,25 +6266,28 @@
         <v>0</v>
       </c>
       <c r="I130">
+        <v>278</v>
+      </c>
+      <c r="J130">
         <v>0</v>
       </c>
       <c r="O130">
         <f>SUM(C130:N130)</f>
-        <v>120</v>
+        <v>314</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="B131">
         <v>4</v>
       </c>
       <c r="C131">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -5849,28 +6296,31 @@
         <v>0</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
         <v>0</v>
       </c>
       <c r="O131">
         <f>SUM(C131:N131)</f>
-        <v>120</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="B132">
         <v>4</v>
       </c>
       <c r="C132">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -5888,22 +6338,25 @@
         <v>0</v>
       </c>
       <c r="I132">
+        <v>294</v>
+      </c>
+      <c r="J132">
         <v>0</v>
       </c>
       <c r="O132">
         <f>SUM(C132:N132)</f>
-        <v>120</v>
+        <v>294</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="B133">
         <v>4</v>
       </c>
       <c r="C133">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -5912,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -5921,55 +6374,61 @@
         <v>0</v>
       </c>
       <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
         <v>0</v>
       </c>
       <c r="O133">
         <f>SUM(C133:N133)</f>
-        <v>120</v>
+        <v>272</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="B134">
         <v>4</v>
       </c>
       <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>36</v>
+      </c>
+      <c r="G134">
+        <v>107</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
         <v>120</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
       </c>
       <c r="O134">
         <f>SUM(C134:N134)</f>
-        <v>120</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="B135">
         <v>4</v>
       </c>
       <c r="C135">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -5987,22 +6446,25 @@
         <v>0</v>
       </c>
       <c r="I135">
+        <v>244</v>
+      </c>
+      <c r="J135">
         <v>0</v>
       </c>
       <c r="O135">
         <f>SUM(C135:N135)</f>
-        <v>120</v>
+        <v>244</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="B136">
         <v>4</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -6011,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -6020,25 +6482,28 @@
         <v>0</v>
       </c>
       <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
         <v>0</v>
       </c>
       <c r="O136">
         <f>SUM(C136:N136)</f>
-        <v>101</v>
+        <v>240</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B137">
         <v>4</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D137">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -6053,16 +6518,19 @@
         <v>0</v>
       </c>
       <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
         <v>0</v>
       </c>
       <c r="O137">
         <f>SUM(C137:N137)</f>
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="B138">
         <v>4</v>
@@ -6077,25 +6545,28 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>0</v>
+      </c>
+      <c r="J138">
+        <v>240</v>
       </c>
       <c r="O138">
         <f>SUM(C138:N138)</f>
-        <v>96</v>
+        <v>240</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -6110,25 +6581,28 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="H139">
+        <v>40</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
         <v>60</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
       </c>
       <c r="O139">
         <f>SUM(C139:N139)</f>
-        <v>96</v>
+        <v>192</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -6137,73 +6611,79 @@
         <v>0</v>
       </c>
       <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>36</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>72</v>
+      </c>
+      <c r="H140">
         <v>60</v>
       </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
       <c r="I140">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
       </c>
       <c r="O140">
         <f>SUM(C140:N140)</f>
-        <v>96</v>
+        <v>168</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="B141">
         <v>4</v>
       </c>
       <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
         <v>60</v>
       </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
       <c r="H141">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
         <v>0</v>
       </c>
       <c r="O141">
         <f>SUM(C141:N141)</f>
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B142">
         <v>4</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D142">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -6219,21 +6699,24 @@
       </c>
       <c r="I142">
         <v>0</v>
+      </c>
+      <c r="J142">
+        <v>78</v>
       </c>
       <c r="O142">
         <f>SUM(C142:N142)</f>
-        <v>80</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="B143">
         <v>4</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -6242,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -6251,25 +6734,28 @@
         <v>0</v>
       </c>
       <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
         <v>0</v>
       </c>
       <c r="O143">
         <f>SUM(C143:N143)</f>
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B144">
         <v>4</v>
       </c>
       <c r="C144">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -6278,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H144">
         <v>60</v>
@@ -6286,23 +6772,26 @@
       <c r="I144">
         <v>0</v>
       </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
       <c r="O144">
         <f>SUM(C144:N144)</f>
-        <v>80</v>
+        <v>132</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B145">
         <v>4</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D145">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -6317,22 +6806,25 @@
         <v>0</v>
       </c>
       <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
         <v>0</v>
       </c>
       <c r="O145">
         <f>SUM(C145:N145)</f>
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="B146">
         <v>4</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -6341,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -6350,25 +6842,28 @@
         <v>0</v>
       </c>
       <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
         <v>0</v>
       </c>
       <c r="O146">
         <f>SUM(C146:N146)</f>
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B147">
         <v>4</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D147">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -6383,25 +6878,28 @@
         <v>0</v>
       </c>
       <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
         <v>0</v>
       </c>
       <c r="O147">
         <f>SUM(C147:N147)</f>
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B148">
         <v>4</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D148">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -6416,22 +6914,25 @@
         <v>0</v>
       </c>
       <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
         <v>0</v>
       </c>
       <c r="O148">
         <f>SUM(C148:N148)</f>
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="B149">
         <v>4</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -6443,28 +6944,31 @@
         <v>0</v>
       </c>
       <c r="G149">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
         <v>0</v>
       </c>
       <c r="O149">
         <f>SUM(C149:N149)</f>
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="B150">
         <v>4</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -6476,28 +6980,31 @@
         <v>0</v>
       </c>
       <c r="G150">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
         <v>0</v>
       </c>
       <c r="O150">
         <f>SUM(C150:N150)</f>
-        <v>69</v>
+        <v>120</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="B151">
         <v>4</v>
       </c>
       <c r="C151">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -6516,15 +7023,18 @@
       </c>
       <c r="I151">
         <v>0</v>
+      </c>
+      <c r="J151">
+        <v>120</v>
       </c>
       <c r="O151">
         <f>SUM(C151:N151)</f>
-        <v>66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="B152">
         <v>4</v>
@@ -6533,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -6548,22 +7058,25 @@
         <v>0</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="J152">
+        <v>60</v>
       </c>
       <c r="O152">
         <f>SUM(C152:N152)</f>
-        <v>65</v>
+        <v>115</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="B153">
         <v>4</v>
       </c>
       <c r="C153">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -6572,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -6581,25 +7094,28 @@
         <v>0</v>
       </c>
       <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
         <v>0</v>
       </c>
       <c r="O153">
         <f>SUM(C153:N153)</f>
-        <v>60</v>
+        <v>101</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B154">
         <v>4</v>
       </c>
       <c r="C154">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -6614,16 +7130,19 @@
         <v>0</v>
       </c>
       <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
         <v>0</v>
       </c>
       <c r="O154">
         <f>SUM(C154:N154)</f>
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="B155">
         <v>4</v>
@@ -6632,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -6644,19 +7163,22 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
         <v>0</v>
       </c>
       <c r="O155">
         <f>SUM(C155:N155)</f>
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B156">
         <v>4</v>
@@ -6671,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -6682,14 +7204,17 @@
       <c r="I156">
         <v>0</v>
       </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
       <c r="O156">
         <f>SUM(C156:N156)</f>
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -6698,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -6710,28 +7235,31 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I157">
+        <v>36</v>
+      </c>
+      <c r="J157">
         <v>0</v>
       </c>
       <c r="O157">
         <f>SUM(C157:N157)</f>
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B158">
         <v>4</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D158">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -6743,19 +7271,22 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
         <v>0</v>
       </c>
       <c r="O158">
         <f>SUM(C158:N158)</f>
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="B159">
         <v>4</v>
@@ -6764,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -6773,22 +7304,25 @@
         <v>0</v>
       </c>
       <c r="G159">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H159">
         <v>0</v>
       </c>
       <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
         <v>0</v>
       </c>
       <c r="O159">
         <f>SUM(C159:N159)</f>
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="B160">
         <v>4</v>
@@ -6803,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -6812,22 +7346,25 @@
         <v>0</v>
       </c>
       <c r="I160">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
       </c>
       <c r="O160">
         <f>SUM(C160:N160)</f>
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B161">
         <v>4</v>
       </c>
       <c r="C161">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -6836,25 +7373,28 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
         <v>0</v>
       </c>
       <c r="O161">
         <f>SUM(C161:N161)</f>
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="B162">
         <v>4</v>
@@ -6863,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -6872,22 +7412,25 @@
         <v>0</v>
       </c>
       <c r="G162">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
         <v>0</v>
       </c>
       <c r="O162">
         <f>SUM(C162:N162)</f>
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -6902,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -6911,16 +7454,19 @@
         <v>0</v>
       </c>
       <c r="I163">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
       </c>
       <c r="O163">
         <f>SUM(C163:N163)</f>
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -6929,10 +7475,10 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E164">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -6944,16 +7490,19 @@
         <v>0</v>
       </c>
       <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
         <v>0</v>
       </c>
       <c r="O164">
         <f>SUM(C164:N164)</f>
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -6962,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -6977,16 +7526,19 @@
         <v>0</v>
       </c>
       <c r="I165">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
       </c>
       <c r="O165">
         <f>SUM(C165:N165)</f>
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="B166">
         <v>4</v>
@@ -6998,28 +7550,31 @@
         <v>0</v>
       </c>
       <c r="E166">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H166">
         <v>0</v>
       </c>
       <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
         <v>0</v>
       </c>
       <c r="O166">
         <f>SUM(C166:N166)</f>
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B167">
         <v>4</v>
@@ -7034,25 +7589,28 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="H167">
         <v>0</v>
       </c>
       <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
         <v>0</v>
       </c>
       <c r="O167">
         <f>SUM(C167:N167)</f>
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="B168">
         <v>4</v>
@@ -7061,13 +7619,13 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E168">
         <v>0</v>
       </c>
       <c r="F168">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -7076,25 +7634,28 @@
         <v>0</v>
       </c>
       <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
         <v>0</v>
       </c>
       <c r="O168">
         <f>SUM(C168:N168)</f>
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B169">
         <v>4</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D169">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -7109,25 +7670,28 @@
         <v>0</v>
       </c>
       <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
         <v>0</v>
       </c>
       <c r="O169">
         <f>SUM(C169:N169)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B170">
         <v>4</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D170">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -7142,16 +7706,19 @@
         <v>0</v>
       </c>
       <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
         <v>0</v>
       </c>
       <c r="O170">
         <f>SUM(C170:N170)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B171">
         <v>4</v>
@@ -7160,14 +7727,14 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
         <v>36</v>
       </c>
-      <c r="F171">
-        <v>0</v>
-      </c>
       <c r="G171">
         <v>0</v>
       </c>
@@ -7175,16 +7742,19 @@
         <v>0</v>
       </c>
       <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
         <v>0</v>
       </c>
       <c r="O171">
         <f>SUM(C171:N171)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="B172">
         <v>4</v>
@@ -7196,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="E172">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -7205,19 +7775,22 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
         <v>0</v>
       </c>
       <c r="O172">
         <f>SUM(C172:N172)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="B173">
         <v>4</v>
@@ -7232,25 +7805,28 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G173">
         <v>0</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
         <v>0</v>
       </c>
       <c r="O173">
         <f>SUM(C173:N173)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="B174">
         <v>4</v>
@@ -7265,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -7275,15 +7851,18 @@
       </c>
       <c r="I174">
         <v>0</v>
+      </c>
+      <c r="J174">
+        <v>60</v>
       </c>
       <c r="O174">
         <f>SUM(C174:N174)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="B175">
         <v>4</v>
@@ -7298,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -7308,15 +7887,18 @@
       </c>
       <c r="I175">
         <v>0</v>
+      </c>
+      <c r="J175">
+        <v>60</v>
       </c>
       <c r="O175">
         <f>SUM(C175:N175)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="B176">
         <v>4</v>
@@ -7325,13 +7907,13 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E176">
         <v>0</v>
       </c>
       <c r="F176">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -7340,16 +7922,19 @@
         <v>0</v>
       </c>
       <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
         <v>0</v>
       </c>
       <c r="O176">
         <f>SUM(C176:N176)</f>
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B177">
         <v>4</v>
@@ -7367,28 +7952,31 @@
         <v>0</v>
       </c>
       <c r="G177">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
         <v>0</v>
       </c>
       <c r="O177">
         <f>SUM(C177:N177)</f>
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="B178">
         <v>4</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -7397,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -7406,16 +7994,19 @@
         <v>0</v>
       </c>
       <c r="I178">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
       </c>
       <c r="O178">
         <f>SUM(C178:N178)</f>
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="B179">
         <v>4</v>
@@ -7433,22 +8024,25 @@
         <v>0</v>
       </c>
       <c r="G179">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I179">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
       </c>
       <c r="O179">
         <f>SUM(C179:N179)</f>
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B180">
         <v>4</v>
@@ -7472,16 +8066,19 @@
         <v>0</v>
       </c>
       <c r="I180">
-        <v>36</v>
+        <v>50</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
       </c>
       <c r="O180">
         <f>SUM(C180:N180)</f>
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -7490,10 +8087,10 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -7505,16 +8102,19 @@
         <v>0</v>
       </c>
       <c r="I181">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
       </c>
       <c r="O181">
         <f>SUM(C181:N181)</f>
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="B182">
         <v>4</v>
@@ -7523,10 +8123,10 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E182">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -7535,19 +8135,22 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I182">
+        <v>36</v>
+      </c>
+      <c r="J182">
         <v>0</v>
       </c>
       <c r="O182">
         <f>SUM(C182:N182)</f>
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B183">
         <v>4</v>
@@ -7559,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -7568,19 +8171,22 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
         <v>0</v>
       </c>
       <c r="O183">
         <f>SUM(C183:N183)</f>
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B184">
         <v>4</v>
@@ -7592,28 +8198,31 @@
         <v>0</v>
       </c>
       <c r="E184">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G184">
         <v>0</v>
       </c>
       <c r="H184">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
         <v>0</v>
       </c>
       <c r="O184">
         <f>SUM(C184:N184)</f>
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="B185">
         <v>4</v>
@@ -7622,13 +8231,13 @@
         <v>0</v>
       </c>
       <c r="D185">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E185">
         <v>0</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -7637,16 +8246,19 @@
         <v>0</v>
       </c>
       <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
         <v>0</v>
       </c>
       <c r="O185">
         <f>SUM(C185:N185)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="B186">
         <v>4</v>
@@ -7655,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="D186">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -7671,15 +8283,18 @@
       </c>
       <c r="I186">
         <v>0</v>
+      </c>
+      <c r="J186">
+        <v>40</v>
       </c>
       <c r="O186">
         <f>SUM(C186:N186)</f>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="B187">
         <v>4</v>
@@ -7697,22 +8312,25 @@
         <v>0</v>
       </c>
       <c r="G187">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="I187">
         <v>0</v>
+      </c>
+      <c r="J187">
+        <v>40</v>
       </c>
       <c r="O187">
         <f>SUM(C187:N187)</f>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="B188">
         <v>4</v>
@@ -7721,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -7736,25 +8354,28 @@
         <v>0</v>
       </c>
       <c r="I188">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
       </c>
       <c r="O188">
         <f>SUM(C188:N188)</f>
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B189">
         <v>4</v>
       </c>
       <c r="C189">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -7769,16 +8390,19 @@
         <v>0</v>
       </c>
       <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
         <v>0</v>
       </c>
       <c r="O189">
         <f>SUM(C189:N189)</f>
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="B190">
         <v>4</v>
@@ -7790,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -7802,16 +8426,19 @@
         <v>0</v>
       </c>
       <c r="I190">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
       </c>
       <c r="O190">
         <f>SUM(C190:N190)</f>
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B191">
         <v>4</v>
@@ -7820,10 +8447,10 @@
         <v>0</v>
       </c>
       <c r="D191">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -7835,16 +8462,19 @@
         <v>0</v>
       </c>
       <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
         <v>0</v>
       </c>
       <c r="O191">
         <f>SUM(C191:N191)</f>
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="B192">
         <v>4</v>
@@ -7856,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -7868,16 +8498,19 @@
         <v>0</v>
       </c>
       <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
         <v>0</v>
       </c>
       <c r="O192">
         <f>SUM(C192:N192)</f>
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="B193">
         <v>4</v>
@@ -7892,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -7901,16 +8534,19 @@
         <v>0</v>
       </c>
       <c r="I193">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
       </c>
       <c r="O193">
         <f>SUM(C193:N193)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="B194">
         <v>4</v>
@@ -7925,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -7934,16 +8570,19 @@
         <v>0</v>
       </c>
       <c r="I194">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
       </c>
       <c r="O194">
         <f>SUM(C194:N194)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="B195">
         <v>4</v>
@@ -7952,13 +8591,13 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E195">
         <v>0</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -7967,16 +8606,19 @@
         <v>0</v>
       </c>
       <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
         <v>0</v>
       </c>
       <c r="O195">
         <f>SUM(C195:N195)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="B196">
         <v>4</v>
@@ -7985,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="D196">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -7994,22 +8636,25 @@
         <v>0</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H196">
         <v>0</v>
       </c>
       <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
         <v>0</v>
       </c>
       <c r="O196">
         <f>SUM(C196:N196)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="B197">
         <v>4</v>
@@ -8018,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -8033,16 +8678,19 @@
         <v>0</v>
       </c>
       <c r="I197">
+        <v>36</v>
+      </c>
+      <c r="J197">
         <v>0</v>
       </c>
       <c r="O197">
         <f>SUM(C197:N197)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="B198">
         <v>4</v>
@@ -8051,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -8066,16 +8714,19 @@
         <v>0</v>
       </c>
       <c r="I198">
+        <v>36</v>
+      </c>
+      <c r="J198">
         <v>0</v>
       </c>
       <c r="O198">
         <f>SUM(C198:N198)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B199">
         <v>4</v>
@@ -8099,16 +8750,19 @@
         <v>0</v>
       </c>
       <c r="I199">
-        <v>5</v>
+        <v>36</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
       </c>
       <c r="O199">
         <f>SUM(C199:N199)</f>
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="B200">
         <v>4</v>
@@ -8117,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -8132,21 +8786,744 @@
         <v>0</v>
       </c>
       <c r="I200">
+        <v>35</v>
+      </c>
+      <c r="J200">
         <v>0</v>
       </c>
       <c r="O200">
         <f>SUM(C200:N200)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>139</v>
+      </c>
+      <c r="B201">
+        <v>4</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>12</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>20</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <f>SUM(C201:N201)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>140</v>
+      </c>
+      <c r="B202">
+        <v>4</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>12</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>20</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <f>SUM(C202:N202)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>141</v>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>12</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>20</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="O203">
+        <f>SUM(C203:N203)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>101</v>
+      </c>
+      <c r="B204">
+        <v>4</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>30</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="O204">
+        <f>SUM(C204:N204)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>105</v>
+      </c>
+      <c r="B205">
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>24</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="O205">
+        <f>SUM(C205:N205)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>183</v>
+      </c>
+      <c r="B206">
+        <v>4</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>24</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="O206">
+        <f>SUM(C206:N206)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>209</v>
+      </c>
+      <c r="B207">
+        <v>4</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>20</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="O207">
+        <f>SUM(C207:N207)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>67</v>
+      </c>
+      <c r="B208">
+        <v>4</v>
+      </c>
+      <c r="C208">
+        <v>20</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="O208">
+        <f>SUM(C208:N208)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>233</v>
+      </c>
+      <c r="B209">
+        <v>4</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>20</v>
+      </c>
+      <c r="O209">
+        <f>SUM(C209:N209)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>4</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>15</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="O210">
+        <f>SUM(C210:N210)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>106</v>
+      </c>
+      <c r="B211">
+        <v>4</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>15</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="O211">
+        <f>SUM(C211:N211)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>138</v>
+      </c>
+      <c r="B212">
+        <v>4</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>15</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="O212">
+        <f>SUM(C212:N212)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>4</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>12</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="O213">
+        <f>SUM(C213:N213)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>211</v>
+      </c>
+      <c r="B214">
+        <v>4</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>12</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <f>SUM(C214:N214)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>107</v>
+      </c>
+      <c r="B215">
+        <v>4</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>12</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="O215">
+        <f>SUM(C215:N215)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>108</v>
+      </c>
+      <c r="B216">
+        <v>4</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>12</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="O216">
+        <f>SUM(C216:N216)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>109</v>
+      </c>
+      <c r="B217">
+        <v>4</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>12</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <f>SUM(C217:N217)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>110</v>
+      </c>
+      <c r="B218">
+        <v>4</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>12</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="O218">
+        <f>SUM(C218:N218)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>213</v>
+      </c>
+      <c r="B219">
+        <v>4</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
         <v>5</v>
       </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <f>SUM(C219:N219)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>112</v>
+      </c>
+      <c r="B220">
+        <v>4</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>5</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <f>SUM(C220:N220)</f>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O200">
-    <sortCondition descending="1" ref="B2:B200"/>
-    <sortCondition descending="1" ref="O2:O200"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O220">
+    <sortCondition descending="1" ref="B2:B220"/>
+    <sortCondition descending="1" ref="O2:O220"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="O2:O200" formulaRange="1"/>
+    <ignoredError sqref="O2:O220" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Classics_Squad/2022/Spring_Classics_M.xlsx
+++ b/Classics_Squad/2022/Spring_Classics_M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75ca376656bd96ab/Documents/Velogames Ultimate Team/Classics_Squad/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1893" documentId="8_{48380F6D-8971-4F5F-99EA-E334BF96AAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F789ED2A-1566-4EE9-A53B-3BB86D186A6D}"/>
+  <xr:revisionPtr revIDLastSave="2685" documentId="8_{48380F6D-8971-4F5F-99EA-E334BF96AAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA1C43AB-DE9A-4CA3-BF85-0FAFF83EF05F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
   <si>
     <t>Names</t>
   </si>
@@ -734,6 +734,87 @@
   </si>
   <si>
     <t>Jos Van Emden</t>
+  </si>
+  <si>
+    <t>Remco Evenepoel</t>
+  </si>
+  <si>
+    <t>Daryl Impey</t>
+  </si>
+  <si>
+    <t>Mauri Vansevenant</t>
+  </si>
+  <si>
+    <t>Hugo Houle</t>
+  </si>
+  <si>
+    <t>Jenno Berckmoes</t>
+  </si>
+  <si>
+    <t>Vito Braet</t>
+  </si>
+  <si>
+    <t>Tony Gallopin</t>
+  </si>
+  <si>
+    <t>Juan Ayuso</t>
+  </si>
+  <si>
+    <t>Cameron Wurf</t>
+  </si>
+  <si>
+    <t>Alexis Renard</t>
+  </si>
+  <si>
+    <t>Ander Okamika</t>
+  </si>
+  <si>
+    <t>Lawrence Naesen</t>
+  </si>
+  <si>
+    <t>Michael Schaer</t>
+  </si>
+  <si>
+    <t>Robert Stannard</t>
+  </si>
+  <si>
+    <t>Alexandre Delettre</t>
+  </si>
+  <si>
+    <t>Winner Anacona</t>
+  </si>
+  <si>
+    <t>Lukasz Owsian</t>
+  </si>
+  <si>
+    <t>Kevin Vauquelin</t>
+  </si>
+  <si>
+    <t>Jonas Gregaard</t>
+  </si>
+  <si>
+    <t>Franck Bonnamour</t>
+  </si>
+  <si>
+    <t>Filippo Ganna</t>
+  </si>
+  <si>
+    <t>Philippe Gilbert</t>
+  </si>
+  <si>
+    <t>Laurent Pichon</t>
+  </si>
+  <si>
+    <t>Stefan Bissegger</t>
+  </si>
+  <si>
+    <t>Clement Davy</t>
+  </si>
+  <si>
+    <t>Bram Welten</t>
+  </si>
+  <si>
+    <t>Mathias Norsgaard</t>
   </si>
 </sst>
 </file>
@@ -1574,10 +1655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O220"/>
+  <dimension ref="A1:O247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,74 +1715,86 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
       <c r="C2">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="G2">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>350</v>
       </c>
       <c r="O2">
         <f>SUM(C2:N2)</f>
-        <v>790</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
       <c r="O3">
         <f>SUM(C3:N3)</f>
-        <v>717</v>
+        <v>790</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1735,9 +1828,15 @@
       <c r="J4">
         <v>260</v>
       </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>160</v>
+      </c>
       <c r="O4">
         <f>SUM(C4:N4)</f>
-        <v>1462</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1771,6 +1870,12 @@
       <c r="J5">
         <v>0</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
       <c r="O5">
         <f>SUM(C5:N5)</f>
         <v>84</v>
@@ -1807,9 +1912,15 @@
       <c r="J6">
         <v>200</v>
       </c>
+      <c r="K6">
+        <v>304</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
       <c r="O6">
         <f>SUM(C6:N6)</f>
-        <v>682</v>
+        <v>986</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1843,6 +1954,12 @@
       <c r="J7">
         <v>220</v>
       </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
       <c r="O7">
         <f>SUM(C7:N7)</f>
         <v>450</v>
@@ -1850,38 +1967,44 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>258</v>
+      </c>
+      <c r="L8">
         <v>0</v>
       </c>
       <c r="O8">
         <f>SUM(C8:N8)</f>
-        <v>671</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1915,9 +2038,15 @@
       <c r="J9">
         <v>200</v>
       </c>
+      <c r="K9">
+        <v>140</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
       <c r="O9">
         <f>SUM(C9:N9)</f>
-        <v>660</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1951,50 +2080,62 @@
       <c r="J10">
         <v>0</v>
       </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>200</v>
+      </c>
       <c r="O10">
         <f>SUM(C10:N10)</f>
-        <v>524</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="G11">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
       <c r="O11">
         <f>SUM(C11:N11)</f>
-        <v>327</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -2009,34 +2150,40 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
+        <v>82</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>84</v>
       </c>
       <c r="O12">
         <f>SUM(C12:N12)</f>
-        <v>89</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2048,31 +2195,37 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>210</v>
       </c>
       <c r="O13">
         <f>SUM(C13:N13)</f>
-        <v>78</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2081,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2093,16 +2246,22 @@
         <v>0</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>65</v>
+      </c>
+      <c r="L14">
         <v>0</v>
       </c>
       <c r="O14">
         <f>SUM(C14:N14)</f>
-        <v>52</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -2120,61 +2279,73 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
+        <v>84</v>
+      </c>
+      <c r="K15">
+        <v>45</v>
+      </c>
+      <c r="L15">
         <v>0</v>
       </c>
       <c r="O15">
         <f>SUM(C15:N15)</f>
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
       </c>
       <c r="O16">
         <f>SUM(C16:N16)</f>
-        <v>986</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -2186,37 +2357,43 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>236</v>
+        <v>166</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="H17">
-        <v>320</v>
+        <v>470</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>180</v>
+        <v>114</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>520</v>
       </c>
       <c r="O17">
         <f>SUM(C17:N17)</f>
-        <v>958</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2225,187 +2402,217 @@
         <v>216</v>
       </c>
       <c r="F18">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="G18">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="H18">
+        <v>60</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>120</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>300</v>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>360</v>
       </c>
       <c r="O18">
         <f>SUM(C18:N18)</f>
-        <v>952</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
       <c r="C19">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="F19">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="H19">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>120</v>
+        <v>180</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>300</v>
       </c>
       <c r="O19">
         <f>SUM(C19:N19)</f>
-        <v>916</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>166</v>
+        <v>364</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="G20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>470</v>
+        <v>220</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>114</v>
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>40</v>
       </c>
       <c r="O20">
         <f>SUM(C20:N20)</f>
-        <v>762</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="B21">
         <v>10</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="F21">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="H21">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I21">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="J21">
+        <v>300</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>0</v>
       </c>
       <c r="O21">
         <f>SUM(C21:N21)</f>
-        <v>710</v>
+        <v>952</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>10</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
+        <v>136</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>150</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
       <c r="I22">
-        <v>264</v>
+        <v>394</v>
       </c>
       <c r="J22">
         <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>130</v>
       </c>
       <c r="O22">
         <f>SUM(C22:N22)</f>
-        <v>664</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2417,67 +2624,79 @@
         <v>0</v>
       </c>
       <c r="J23">
+        <v>410</v>
+      </c>
+      <c r="K23">
+        <v>328</v>
+      </c>
+      <c r="L23">
         <v>0</v>
       </c>
       <c r="O23">
         <f>SUM(C23:N23)</f>
-        <v>549</v>
+        <v>738</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G24">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>0</v>
       </c>
       <c r="O24">
         <f>SUM(C24:N24)</f>
-        <v>450</v>
+        <v>664</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2489,11 +2708,17 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>410</v>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
       </c>
       <c r="O25">
         <f>SUM(C25:N25)</f>
-        <v>410</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2527,86 +2752,104 @@
       <c r="J26">
         <v>150</v>
       </c>
+      <c r="K26">
+        <v>166</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
       <c r="O26">
         <f>SUM(C26:N26)</f>
-        <v>370</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>10</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I27">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>0</v>
       </c>
       <c r="O27">
         <f>SUM(C27:N27)</f>
-        <v>328</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
       <c r="C28">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>272</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
       </c>
       <c r="O28">
         <f>SUM(C28:N28)</f>
-        <v>293</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -2615,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2630,19 +2873,25 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>0</v>
       </c>
       <c r="O29">
         <f>SUM(C29:N29)</f>
-        <v>220</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -2669,64 +2918,76 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>160</v>
+        <v>66</v>
+      </c>
+      <c r="K30">
+        <v>228</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
       </c>
       <c r="O30">
         <f>SUM(C30:N30)</f>
-        <v>160</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31">
         <v>10</v>
       </c>
       <c r="C31">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
+        <v>72</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>0</v>
       </c>
       <c r="O31">
         <f>SUM(C31:N31)</f>
-        <v>146</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>216</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <v>10</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2741,16 +3002,22 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>120</v>
       </c>
       <c r="O32">
         <f>SUM(C32:N32)</f>
-        <v>90</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -2759,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2774,19 +3041,25 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>0</v>
       </c>
       <c r="O33">
         <f>SUM(C33:N33)</f>
-        <v>80</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B34">
         <v>10</v>
@@ -2813,16 +3086,22 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>66</v>
+        <v>160</v>
+      </c>
+      <c r="K34">
+        <v>25</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
       </c>
       <c r="O34">
         <f>SUM(C34:N34)</f>
-        <v>66</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="B35">
         <v>10</v>
@@ -2834,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2849,16 +3128,22 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>84</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
       </c>
       <c r="O35">
         <f>SUM(C35:N35)</f>
-        <v>60</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -2870,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2885,16 +3170,22 @@
         <v>0</v>
       </c>
       <c r="J36">
+        <v>90</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>0</v>
       </c>
       <c r="O36">
         <f>SUM(C36:N36)</f>
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B37">
         <v>10</v>
@@ -2918,19 +3209,25 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J37">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
       </c>
       <c r="O37">
         <f>SUM(C37:N37)</f>
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="B38">
         <v>10</v>
@@ -2939,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2954,86 +3251,104 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J38">
+        <v>36</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>0</v>
       </c>
       <c r="O38">
         <f>SUM(C38:N38)</f>
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E39">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>110</v>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
       </c>
       <c r="O39">
         <f>SUM(C39:N39)</f>
-        <v>758</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="B40">
         <v>8</v>
       </c>
       <c r="C40">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F40">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>20</v>
       </c>
       <c r="O40">
         <f>SUM(C40:N40)</f>
-        <v>698</v>
+        <v>778</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3067,104 +3382,122 @@
       <c r="J41">
         <v>520</v>
       </c>
+      <c r="K41">
+        <v>36</v>
+      </c>
+      <c r="L41">
+        <v>60</v>
+      </c>
       <c r="O41">
         <f>SUM(C41:N41)</f>
-        <v>610</v>
+        <v>706</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="B42">
         <v>8</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D42">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
         <v>0</v>
       </c>
       <c r="O42">
         <f>SUM(C42:N42)</f>
-        <v>499</v>
+        <v>698</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B43">
         <v>8</v>
       </c>
       <c r="C43">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="J43">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
       </c>
       <c r="O43">
         <f>SUM(C43:N43)</f>
-        <v>478</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B44">
         <v>8</v>
       </c>
       <c r="C44">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D44">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -3173,52 +3506,64 @@
         <v>0</v>
       </c>
       <c r="J44">
+        <v>12</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
         <v>0</v>
       </c>
       <c r="O44">
         <f>SUM(C44:N44)</f>
-        <v>446</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="B45">
         <v>8</v>
       </c>
       <c r="C45">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="H45">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J45">
         <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>54</v>
       </c>
       <c r="O45">
         <f>SUM(C45:N45)</f>
-        <v>403</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -3230,98 +3575,116 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G46">
-        <v>304</v>
+        <v>39</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I46">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>106</v>
       </c>
       <c r="O46">
         <f>SUM(C46:N46)</f>
-        <v>403</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="B47">
         <v>8</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E47">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="G47">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
       </c>
       <c r="O47">
         <f>SUM(C47:N47)</f>
-        <v>346</v>
+        <v>446</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="B48">
         <v>8</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="I48">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>36</v>
       </c>
       <c r="O48">
         <f>SUM(C48:N48)</f>
-        <v>304</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3355,9 +3718,15 @@
       <c r="J49">
         <v>0</v>
       </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>110</v>
+      </c>
       <c r="O49">
         <f>SUM(C49:N49)</f>
-        <v>263</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3391,23 +3760,29 @@
       <c r="J50">
         <v>24</v>
       </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>72</v>
+      </c>
       <c r="O50">
         <f>SUM(C50:N50)</f>
-        <v>240</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="B51">
         <v>8</v>
       </c>
       <c r="C51">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3422,14 +3797,20 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
         <v>0</v>
       </c>
       <c r="O51">
         <f>SUM(C51:N51)</f>
-        <v>224</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -3463,23 +3844,29 @@
       <c r="J52">
         <v>100</v>
       </c>
+      <c r="K52">
+        <v>100</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
       <c r="O52">
         <f>SUM(C52:N52)</f>
-        <v>191</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B53">
         <v>8</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D53">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3497,25 +3884,31 @@
         <v>0</v>
       </c>
       <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
         <v>0</v>
       </c>
       <c r="O53">
         <f>SUM(C53:N53)</f>
-        <v>180</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B54">
         <v>8</v>
       </c>
       <c r="C54">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3533,16 +3926,22 @@
         <v>0</v>
       </c>
       <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
         <v>0</v>
       </c>
       <c r="O54">
         <f>SUM(C54:N54)</f>
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="B55">
         <v>8</v>
@@ -3551,46 +3950,52 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I55">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>78</v>
       </c>
       <c r="O55">
         <f>SUM(C55:N55)</f>
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B56">
         <v>8</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D56">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3605,16 +4010,22 @@
         <v>0</v>
       </c>
       <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
         <v>0</v>
       </c>
       <c r="O56">
         <f>SUM(C56:N56)</f>
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -3623,34 +4034,40 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G57">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
         <v>0</v>
       </c>
       <c r="O57">
         <f>SUM(C57:N57)</f>
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -3659,13 +4076,13 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F58">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -3674,19 +4091,25 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
         <v>0</v>
       </c>
       <c r="O58">
         <f>SUM(C58:N58)</f>
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B59">
         <v>8</v>
@@ -3698,31 +4121,37 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F59">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="H59">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
         <v>0</v>
       </c>
       <c r="O59">
         <f>SUM(C59:N59)</f>
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -3737,34 +4166,40 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G60">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
         <v>0</v>
       </c>
       <c r="O60">
         <f>SUM(C60:N60)</f>
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="B61">
         <v>8</v>
       </c>
       <c r="C61">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3785,16 +4220,22 @@
         <v>0</v>
       </c>
       <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>85</v>
+      </c>
+      <c r="L61">
         <v>0</v>
       </c>
       <c r="O61">
         <f>SUM(C61:N61)</f>
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -3806,37 +4247,43 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
         <v>0</v>
       </c>
       <c r="O62">
         <f>SUM(C62:N62)</f>
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B63">
         <v>8</v>
       </c>
       <c r="C63">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3845,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3857,28 +4304,34 @@
         <v>0</v>
       </c>
       <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
         <v>0</v>
       </c>
       <c r="O63">
         <f>SUM(C63:N63)</f>
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="B64">
         <v>8</v>
       </c>
       <c r="C64">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3893,16 +4346,22 @@
         <v>0</v>
       </c>
       <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
         <v>0</v>
       </c>
       <c r="O64">
         <f>SUM(C64:N64)</f>
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -3920,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3930,21 +4389,27 @@
       </c>
       <c r="J65">
         <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>60</v>
       </c>
       <c r="O65">
         <f>SUM(C65:N65)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="B66">
         <v>8</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3953,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -3965,22 +4430,28 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
       </c>
       <c r="O66">
         <f>SUM(C66:N66)</f>
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B67">
         <v>8</v>
       </c>
       <c r="C67">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4001,16 +4472,22 @@
         <v>0</v>
       </c>
       <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
         <v>0</v>
       </c>
       <c r="O67">
         <f>SUM(C67:N67)</f>
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -4028,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -4037,16 +4514,22 @@
         <v>0</v>
       </c>
       <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
         <v>0</v>
       </c>
       <c r="O68">
         <f>SUM(C68:N68)</f>
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -4070,25 +4553,31 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J69">
+        <v>26</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
         <v>0</v>
       </c>
       <c r="O69">
         <f>SUM(C69:N69)</f>
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B70">
         <v>8</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4109,19 +4598,25 @@
         <v>0</v>
       </c>
       <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
         <v>0</v>
       </c>
       <c r="O70">
         <f>SUM(C70:N70)</f>
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -4136,28 +4631,34 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H71">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
         <v>0</v>
       </c>
       <c r="O71">
         <f>SUM(C71:N71)</f>
-        <v>350</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -4169,31 +4670,37 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
         <v>0</v>
       </c>
       <c r="O72">
         <f>SUM(C72:N72)</f>
-        <v>288</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -4214,70 +4721,82 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>10</v>
+      </c>
+      <c r="L73">
         <v>0</v>
       </c>
       <c r="O73">
         <f>SUM(C73:N73)</f>
-        <v>284</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>255</v>
       </c>
       <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
         <v>6</v>
-      </c>
-      <c r="C74">
-        <v>20</v>
-      </c>
-      <c r="D74">
-        <v>36</v>
-      </c>
-      <c r="E74">
-        <v>121</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>36</v>
-      </c>
-      <c r="H74">
-        <v>60</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
       </c>
       <c r="O74">
         <f>SUM(C74:N74)</f>
-        <v>273</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75">
         <v>6</v>
       </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -4289,16 +4808,22 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
       </c>
       <c r="O75">
         <f>SUM(C75:N75)</f>
-        <v>229</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -4310,31 +4835,37 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H76">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
         <v>0</v>
       </c>
       <c r="O76">
         <f>SUM(C76:N76)</f>
-        <v>226</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -4343,34 +4874,40 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>36</v>
+      </c>
+      <c r="L77">
         <v>0</v>
       </c>
       <c r="O77">
         <f>SUM(C77:N77)</f>
-        <v>215</v>
+        <v>324</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -4379,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4391,58 +4928,70 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>65</v>
+        <v>284</v>
       </c>
       <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
         <v>0</v>
       </c>
       <c r="O78">
         <f>SUM(C78:N78)</f>
-        <v>201</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B79">
         <v>6</v>
       </c>
       <c r="C79">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D79">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F79">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
         <v>0</v>
       </c>
       <c r="O79">
         <f>SUM(C79:N79)</f>
-        <v>193</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -4451,16 +5000,16 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G80">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -4469,16 +5018,22 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>40</v>
       </c>
       <c r="O80">
         <f>SUM(C80:N80)</f>
-        <v>184</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -4490,31 +5045,37 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="F81">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
         <v>0</v>
       </c>
       <c r="O81">
         <f>SUM(C81:N81)</f>
-        <v>177</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -4523,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4535,22 +5096,28 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
         <v>0</v>
       </c>
       <c r="O82">
         <f>SUM(C82:N82)</f>
-        <v>150</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -4559,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4568,25 +5135,31 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>110</v>
+      </c>
+      <c r="L83">
         <v>0</v>
       </c>
       <c r="O83">
         <f>SUM(C83:N83)</f>
-        <v>144</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -4595,49 +5168,55 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E84">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>96</v>
+      </c>
+      <c r="I84">
         <v>65</v>
       </c>
-      <c r="H84">
-        <v>20</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
       <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
         <v>0</v>
       </c>
       <c r="O84">
         <f>SUM(C84:N84)</f>
-        <v>137</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B85">
         <v>6</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D85">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -4646,19 +5225,25 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
         <v>0</v>
       </c>
       <c r="O85">
         <f>SUM(C85:N85)</f>
-        <v>125</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -4667,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4676,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -4685,16 +5270,22 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>120</v>
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
       </c>
       <c r="O86">
         <f>SUM(C86:N86)</f>
-        <v>120</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="B87">
         <v>6</v>
@@ -4706,31 +5297,37 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
       </c>
       <c r="O87">
         <f>SUM(C87:N87)</f>
-        <v>100</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -4742,31 +5339,37 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
         <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>38</v>
       </c>
       <c r="O88">
         <f>SUM(C88:N88)</f>
-        <v>96</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="B89">
         <v>6</v>
@@ -4775,34 +5378,40 @@
         <v>0</v>
       </c>
       <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>120</v>
+      </c>
+      <c r="K89">
         <v>36</v>
       </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>60</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
+      <c r="L89">
         <v>0</v>
       </c>
       <c r="O89">
         <f>SUM(C89:N89)</f>
-        <v>96</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -4817,28 +5426,34 @@
         <v>0</v>
       </c>
       <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>60</v>
+      </c>
+      <c r="K90">
         <v>36</v>
       </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>24</v>
-      </c>
-      <c r="I90">
-        <v>36</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
+      <c r="L90">
+        <v>60</v>
       </c>
       <c r="O90">
         <f>SUM(C90:N90)</f>
-        <v>96</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -4847,10 +5462,10 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E91">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4859,58 +5474,70 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I91">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
         <v>0</v>
       </c>
       <c r="O91">
         <f>SUM(C91:N91)</f>
-        <v>94</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="B92">
         <v>6</v>
       </c>
       <c r="C92">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E92">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
         <v>0</v>
       </c>
       <c r="O92">
         <f>SUM(C92:N92)</f>
-        <v>88</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="B93">
         <v>6</v>
@@ -4919,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4937,16 +5564,22 @@
         <v>0</v>
       </c>
       <c r="J93">
+        <v>40</v>
+      </c>
+      <c r="K93">
+        <v>104</v>
+      </c>
+      <c r="L93">
         <v>0</v>
       </c>
       <c r="O93">
         <f>SUM(C93:N93)</f>
-        <v>85</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="B94">
         <v>6</v>
@@ -4955,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4964,20 +5597,26 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
         <v>0</v>
       </c>
       <c r="O94">
         <f>SUM(C94:N94)</f>
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
@@ -5011,14 +5650,20 @@
       <c r="J95">
         <v>0</v>
       </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>40</v>
+      </c>
       <c r="O95">
         <f>SUM(C95:N95)</f>
-        <v>84</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -5027,16 +5672,16 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -5045,16 +5690,22 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>40</v>
       </c>
       <c r="O96">
         <f>SUM(C96:N96)</f>
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="B97">
         <v>6</v>
@@ -5066,31 +5717,37 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
+        <v>40</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
         <v>0</v>
       </c>
       <c r="O97">
         <f>SUM(C97:N97)</f>
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>221</v>
+        <v>126</v>
       </c>
       <c r="B98">
         <v>6</v>
@@ -5102,13 +5759,13 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -5117,16 +5774,22 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
       </c>
       <c r="O98">
         <f>SUM(C98:N98)</f>
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B99">
         <v>6</v>
@@ -5138,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>36</v>
@@ -5147,22 +5810,28 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
         <v>0</v>
       </c>
       <c r="O99">
         <f>SUM(C99:N99)</f>
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B100">
         <v>6</v>
@@ -5174,37 +5843,43 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
         <v>24</v>
       </c>
-      <c r="G100">
-        <v>24</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
       <c r="J100">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
       </c>
       <c r="O100">
         <f>SUM(C100:N100)</f>
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="B101">
         <v>6</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -5213,7 +5888,7 @@
         <v>36</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -5222,28 +5897,34 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
         <v>0</v>
       </c>
       <c r="O101">
         <f>SUM(C101:N101)</f>
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B102">
         <v>6</v>
       </c>
       <c r="C102">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -5261,22 +5942,28 @@
         <v>0</v>
       </c>
       <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
         <v>0</v>
       </c>
       <c r="O102">
         <f>SUM(C102:N102)</f>
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="B103">
         <v>6</v>
       </c>
       <c r="C103">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -5288,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -5297,16 +5984,22 @@
         <v>0</v>
       </c>
       <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
         <v>0</v>
       </c>
       <c r="O103">
         <f>SUM(C103:N103)</f>
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B104">
         <v>6</v>
@@ -5327,22 +6020,28 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J104">
         <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>48</v>
       </c>
       <c r="O104">
         <f>SUM(C104:N104)</f>
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="B105">
         <v>6</v>
@@ -5351,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -5366,19 +6065,25 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
         <v>0</v>
       </c>
       <c r="O105">
         <f>SUM(C105:N105)</f>
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>223</v>
+        <v>130</v>
       </c>
       <c r="B106">
         <v>6</v>
@@ -5390,10 +6095,10 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -5405,16 +6110,22 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
       </c>
       <c r="O106">
         <f>SUM(C106:N106)</f>
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="B107">
         <v>6</v>
@@ -5429,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -5441,16 +6152,22 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>36</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
       </c>
       <c r="O107">
         <f>SUM(C107:N107)</f>
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>147</v>
+        <v>221</v>
       </c>
       <c r="B108">
         <v>6</v>
@@ -5465,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -5477,16 +6194,22 @@
         <v>0</v>
       </c>
       <c r="J108">
+        <v>70</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
         <v>0</v>
       </c>
       <c r="O108">
         <f>SUM(C108:N108)</f>
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>6</v>
@@ -5498,31 +6221,37 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G109">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
         <v>0</v>
       </c>
       <c r="O109">
         <f>SUM(C109:N109)</f>
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="B110">
         <v>6</v>
@@ -5534,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -5546,25 +6275,31 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J110">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
       </c>
       <c r="O110">
         <f>SUM(C110:N110)</f>
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B111">
         <v>6</v>
       </c>
       <c r="C111">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -5585,22 +6320,28 @@
         <v>0</v>
       </c>
       <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
         <v>0</v>
       </c>
       <c r="O111">
         <f>SUM(C111:N111)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B112">
         <v>6</v>
       </c>
       <c r="C112">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -5621,16 +6362,22 @@
         <v>0</v>
       </c>
       <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
         <v>0</v>
       </c>
       <c r="O112">
         <f>SUM(C112:N112)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="B113">
         <v>6</v>
@@ -5651,22 +6398,28 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
       </c>
       <c r="O113">
         <f>SUM(C113:N113)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="B114">
         <v>6</v>
@@ -5675,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -5690,19 +6443,25 @@
         <v>0</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
         <v>0</v>
       </c>
       <c r="O114">
         <f>SUM(C114:N114)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="B115">
         <v>6</v>
@@ -5717,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -5729,16 +6488,22 @@
         <v>0</v>
       </c>
       <c r="J115">
+        <v>60</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
         <v>0</v>
       </c>
       <c r="O115">
         <f>SUM(C115:N115)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B116">
         <v>6</v>
@@ -5753,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -5765,16 +6530,22 @@
         <v>0</v>
       </c>
       <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
         <v>0</v>
       </c>
       <c r="O116">
         <f>SUM(C116:N116)</f>
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="B117">
         <v>6</v>
@@ -5792,25 +6563,31 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I117">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
         <v>0</v>
       </c>
       <c r="O117">
         <f>SUM(C117:N117)</f>
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="B118">
         <v>6</v>
@@ -5819,34 +6596,40 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
         <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>24</v>
       </c>
       <c r="O118">
         <f>SUM(C118:N118)</f>
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="B119">
         <v>6</v>
@@ -5861,37 +6644,43 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
+        <v>48</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
         <v>0</v>
       </c>
       <c r="O119">
         <f>SUM(C119:N119)</f>
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B120">
         <v>6</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D120">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -5909,22 +6698,28 @@
         <v>0</v>
       </c>
       <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
         <v>0</v>
       </c>
       <c r="O120">
         <f>SUM(C120:N120)</f>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="B121">
         <v>6</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -5936,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -5945,16 +6740,22 @@
         <v>0</v>
       </c>
       <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
         <v>0</v>
       </c>
       <c r="O121">
         <f>SUM(C121:N121)</f>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="B122">
         <v>6</v>
@@ -5978,19 +6779,25 @@
         <v>0</v>
       </c>
       <c r="I122">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>40</v>
+      </c>
+      <c r="L122">
         <v>0</v>
       </c>
       <c r="O122">
         <f>SUM(C122:N122)</f>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B123">
         <v>6</v>
@@ -5999,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -6017,16 +6824,22 @@
         <v>0</v>
       </c>
       <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
         <v>0</v>
       </c>
       <c r="O123">
         <f>SUM(C123:N123)</f>
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="B124">
         <v>6</v>
@@ -6041,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -6053,16 +6866,22 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
       </c>
       <c r="O124">
         <f>SUM(C124:N124)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>199</v>
+        <v>86</v>
       </c>
       <c r="B125">
         <v>6</v>
@@ -6071,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -6086,28 +6905,34 @@
         <v>0</v>
       </c>
       <c r="I125">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
         <v>0</v>
       </c>
       <c r="O125">
         <f>SUM(C125:N125)</f>
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B126">
         <v>6</v>
       </c>
       <c r="C126">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -6125,22 +6950,28 @@
         <v>0</v>
       </c>
       <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
         <v>0</v>
       </c>
       <c r="O126">
         <f>SUM(C126:N126)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="B127">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C127">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -6152,28 +6983,34 @@
         <v>0</v>
       </c>
       <c r="G127">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="H127">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
-        <v>130</v>
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
       </c>
       <c r="O127">
         <f>SUM(C127:N127)</f>
-        <v>660</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="B128">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -6182,40 +7019,46 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J128">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
       </c>
       <c r="O128">
         <f>SUM(C128:N128)</f>
-        <v>445</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>200</v>
+        <v>88</v>
       </c>
       <c r="B129">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -6230,22 +7073,28 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
         <v>0</v>
       </c>
       <c r="O129">
         <f>SUM(C129:N129)</f>
-        <v>344</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="B130">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -6254,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -6266,28 +7115,34 @@
         <v>0</v>
       </c>
       <c r="I130">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="J130">
+        <v>18</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
         <v>0</v>
       </c>
       <c r="O130">
         <f>SUM(C130:N130)</f>
-        <v>314</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="B131">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -6296,31 +7151,37 @@
         <v>0</v>
       </c>
       <c r="G131">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
         <v>0</v>
       </c>
       <c r="O131">
         <f>SUM(C131:N131)</f>
-        <v>308</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -6338,19 +7199,25 @@
         <v>0</v>
       </c>
       <c r="I132">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
         <v>0</v>
       </c>
       <c r="O132">
         <f>SUM(C132:N132)</f>
-        <v>294</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B133">
         <v>4</v>
@@ -6362,37 +7229,43 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F133">
-        <v>272</v>
+        <v>51</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="K133">
+        <v>324</v>
+      </c>
+      <c r="L133">
+        <v>200</v>
       </c>
       <c r="O133">
         <f>SUM(C133:N133)</f>
-        <v>272</v>
+        <v>969</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="B134">
         <v>4</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -6401,28 +7274,34 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134">
-        <v>120</v>
+        <v>130</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
       </c>
       <c r="O134">
         <f>SUM(C134:N134)</f>
-        <v>263</v>
+        <v>660</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -6440,31 +7319,37 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I135">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="K135">
+        <v>358</v>
+      </c>
+      <c r="L135">
+        <v>60</v>
       </c>
       <c r="O135">
         <f>SUM(C135:N135)</f>
-        <v>244</v>
+        <v>610</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="B136">
         <v>4</v>
       </c>
       <c r="C136">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -6482,25 +7367,31 @@
         <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J136">
         <v>0</v>
+      </c>
+      <c r="K136">
+        <v>20</v>
+      </c>
+      <c r="L136">
+        <v>380</v>
       </c>
       <c r="O136">
         <f>SUM(C136:N136)</f>
-        <v>240</v>
+        <v>436</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="B137">
         <v>4</v>
       </c>
       <c r="C137">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -6518,19 +7409,25 @@
         <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
         <v>0</v>
       </c>
       <c r="O137">
         <f>SUM(C137:N137)</f>
-        <v>240</v>
+        <v>344</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="B138">
         <v>4</v>
@@ -6542,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -6554,19 +7451,25 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="J138">
-        <v>240</v>
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
       </c>
       <c r="O138">
         <f>SUM(C138:N138)</f>
-        <v>240</v>
+        <v>314</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -6581,28 +7484,34 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="G139">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>42</v>
       </c>
       <c r="O139">
         <f>SUM(C139:N139)</f>
-        <v>192</v>
+        <v>314</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -6611,34 +7520,40 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E140">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F140">
         <v>0</v>
       </c>
       <c r="G140">
-        <v>72</v>
+        <v>284</v>
       </c>
       <c r="H140">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
         <v>0</v>
       </c>
       <c r="O140">
         <f>SUM(C140:N140)</f>
-        <v>168</v>
+        <v>308</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="B141">
         <v>4</v>
@@ -6656,31 +7571,37 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
         <v>0</v>
       </c>
       <c r="O141">
         <f>SUM(C141:N141)</f>
-        <v>144</v>
+        <v>294</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="B142">
         <v>4</v>
       </c>
       <c r="C142">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -6689,10 +7610,10 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -6701,22 +7622,28 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>78</v>
+        <v>120</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
       </c>
       <c r="O142">
         <f>SUM(C142:N142)</f>
-        <v>144</v>
+        <v>263</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="B143">
         <v>4</v>
       </c>
       <c r="C143">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -6725,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -6738,15 +7665,21 @@
       </c>
       <c r="J143">
         <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>220</v>
       </c>
       <c r="O143">
         <f>SUM(C143:N143)</f>
-        <v>140</v>
+        <v>256</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="B144">
         <v>4</v>
@@ -6755,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -6764,31 +7697,37 @@
         <v>0</v>
       </c>
       <c r="G144">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
         <v>0</v>
       </c>
       <c r="O144">
         <f>SUM(C144:N144)</f>
-        <v>132</v>
+        <v>244</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="B145">
         <v>4</v>
       </c>
       <c r="C145">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -6800,31 +7739,37 @@
         <v>0</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="I145">
         <v>0</v>
       </c>
       <c r="J145">
         <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>100</v>
       </c>
       <c r="O145">
         <f>SUM(C145:N145)</f>
-        <v>120</v>
+        <v>244</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B146">
         <v>4</v>
       </c>
       <c r="C146">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -6845,22 +7790,28 @@
         <v>0</v>
       </c>
       <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
         <v>0</v>
       </c>
       <c r="O146">
         <f>SUM(C146:N146)</f>
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B147">
         <v>4</v>
       </c>
       <c r="C147">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -6881,22 +7832,28 @@
         <v>0</v>
       </c>
       <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
         <v>0</v>
       </c>
       <c r="O147">
         <f>SUM(C147:N147)</f>
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="B148">
         <v>4</v>
       </c>
       <c r="C148">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -6917,22 +7874,28 @@
         <v>0</v>
       </c>
       <c r="J148">
+        <v>240</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
         <v>0</v>
       </c>
       <c r="O148">
         <f>SUM(C148:N148)</f>
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>59</v>
+        <v>256</v>
       </c>
       <c r="B149">
         <v>4</v>
       </c>
       <c r="C149">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -6954,21 +7917,27 @@
       </c>
       <c r="J149">
         <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>240</v>
       </c>
       <c r="O149">
         <f>SUM(C149:N149)</f>
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="B150">
         <v>4</v>
       </c>
       <c r="C150">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -6989,16 +7958,22 @@
         <v>0</v>
       </c>
       <c r="J150">
+        <v>60</v>
+      </c>
+      <c r="K150">
+        <v>131</v>
+      </c>
+      <c r="L150">
         <v>0</v>
       </c>
       <c r="O150">
         <f>SUM(C150:N150)</f>
-        <v>120</v>
+        <v>191</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="B151">
         <v>4</v>
@@ -7013,28 +7988,34 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I151">
         <v>0</v>
       </c>
       <c r="J151">
-        <v>120</v>
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>90</v>
       </c>
       <c r="O151">
         <f>SUM(C151:N151)</f>
-        <v>120</v>
+        <v>186</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="B152">
         <v>4</v>
@@ -7046,37 +8027,43 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F152">
         <v>0</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I152">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J152">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
       </c>
       <c r="O152">
         <f>SUM(C152:N152)</f>
-        <v>115</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="B153">
         <v>4</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -7085,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -7097,25 +8084,31 @@
         <v>0</v>
       </c>
       <c r="J153">
+        <v>78</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
         <v>0</v>
       </c>
       <c r="O153">
         <f>SUM(C153:N153)</f>
-        <v>101</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B154">
         <v>4</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D154">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -7133,16 +8126,22 @@
         <v>0</v>
       </c>
       <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
         <v>0</v>
       </c>
       <c r="O154">
         <f>SUM(C154:N154)</f>
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="B155">
         <v>4</v>
@@ -7151,16 +8150,16 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E155">
         <v>0</v>
       </c>
       <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
         <v>36</v>
-      </c>
-      <c r="G155">
-        <v>0</v>
       </c>
       <c r="H155">
         <v>60</v>
@@ -7171,20 +8170,26 @@
       <c r="J155">
         <v>0</v>
       </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
       <c r="O155">
         <f>SUM(C155:N155)</f>
-        <v>96</v>
+        <v>132</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="B156">
         <v>4</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -7193,37 +8198,43 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G156">
         <v>0</v>
       </c>
       <c r="H156">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
         <v>0</v>
       </c>
       <c r="O156">
         <f>SUM(C156:N156)</f>
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B157">
         <v>4</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D157">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -7238,25 +8249,31 @@
         <v>0</v>
       </c>
       <c r="I157">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
         <v>0</v>
       </c>
       <c r="O157">
         <f>SUM(C157:N157)</f>
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B158">
         <v>4</v>
       </c>
       <c r="C158">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -7271,31 +8288,37 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
         <v>0</v>
       </c>
       <c r="O158">
         <f>SUM(C158:N158)</f>
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="B159">
         <v>4</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D159">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -7313,22 +8336,28 @@
         <v>0</v>
       </c>
       <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
         <v>0</v>
       </c>
       <c r="O159">
         <f>SUM(C159:N159)</f>
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="B160">
         <v>4</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -7337,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -7349,22 +8378,28 @@
         <v>0</v>
       </c>
       <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
         <v>0</v>
       </c>
       <c r="O160">
         <f>SUM(C160:N160)</f>
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B161">
         <v>4</v>
       </c>
       <c r="C161">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -7379,22 +8414,28 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>0</v>
       </c>
       <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
         <v>0</v>
       </c>
       <c r="O161">
         <f>SUM(C161:N161)</f>
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="B162">
         <v>4</v>
@@ -7403,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -7421,16 +8462,22 @@
         <v>0</v>
       </c>
       <c r="J162">
+        <v>120</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
         <v>0</v>
       </c>
       <c r="O162">
         <f>SUM(C162:N162)</f>
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -7445,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -7454,19 +8501,25 @@
         <v>0</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J163">
+        <v>60</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
         <v>0</v>
       </c>
       <c r="O163">
         <f>SUM(C163:N163)</f>
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -7475,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E164">
         <v>0</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -7493,16 +8546,22 @@
         <v>0</v>
       </c>
       <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
         <v>0</v>
       </c>
       <c r="O164">
         <f>SUM(C164:N164)</f>
-        <v>72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -7511,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -7529,16 +8588,22 @@
         <v>0</v>
       </c>
       <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
         <v>0</v>
       </c>
       <c r="O165">
         <f>SUM(C165:N165)</f>
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B166">
         <v>4</v>
@@ -7553,28 +8618,34 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G166">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I166">
         <v>0</v>
       </c>
       <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
         <v>0</v>
       </c>
       <c r="O166">
         <f>SUM(C166:N166)</f>
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="B167">
         <v>4</v>
@@ -7583,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -7592,25 +8663,31 @@
         <v>0</v>
       </c>
       <c r="G167">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="H167">
         <v>0</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
         <v>0</v>
       </c>
       <c r="O167">
         <f>SUM(C167:N167)</f>
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>95</v>
+        <v>242</v>
       </c>
       <c r="B168">
         <v>4</v>
@@ -7619,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -7638,15 +8715,21 @@
       </c>
       <c r="J168">
         <v>0</v>
+      </c>
+      <c r="K168">
+        <v>36</v>
+      </c>
+      <c r="L168">
+        <v>60</v>
       </c>
       <c r="O168">
         <f>SUM(C168:N168)</f>
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B169">
         <v>4</v>
@@ -7667,28 +8750,34 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I169">
         <v>0</v>
       </c>
       <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
         <v>0</v>
       </c>
       <c r="O169">
         <f>SUM(C169:N169)</f>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>63</v>
+        <v>235</v>
       </c>
       <c r="B170">
         <v>4</v>
       </c>
       <c r="C170">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -7709,16 +8798,22 @@
         <v>0</v>
       </c>
       <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>90</v>
+      </c>
+      <c r="L170">
         <v>0</v>
       </c>
       <c r="O170">
         <f>SUM(C170:N170)</f>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B171">
         <v>4</v>
@@ -7727,13 +8822,13 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E171">
         <v>0</v>
       </c>
       <c r="F171">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -7745,16 +8840,22 @@
         <v>0</v>
       </c>
       <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
         <v>0</v>
       </c>
       <c r="O171">
         <f>SUM(C171:N171)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="B172">
         <v>4</v>
@@ -7769,34 +8870,40 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G172">
         <v>0</v>
       </c>
       <c r="H172">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>0</v>
       </c>
       <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
         <v>0</v>
       </c>
       <c r="O172">
         <f>SUM(C172:N172)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="B173">
         <v>4</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -7819,14 +8926,20 @@
       <c r="J173">
         <v>0</v>
       </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
       <c r="O173">
         <f>SUM(C173:N173)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>230</v>
+        <v>92</v>
       </c>
       <c r="B174">
         <v>4</v>
@@ -7835,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -7853,16 +8966,22 @@
         <v>0</v>
       </c>
       <c r="J174">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
       </c>
       <c r="O174">
         <f>SUM(C174:N174)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="B175">
         <v>4</v>
@@ -7877,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -7889,16 +9008,22 @@
         <v>0</v>
       </c>
       <c r="J175">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
       </c>
       <c r="O175">
         <f>SUM(C175:N175)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>97</v>
+        <v>237</v>
       </c>
       <c r="B176">
         <v>4</v>
@@ -7907,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -7925,16 +9050,22 @@
         <v>0</v>
       </c>
       <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>75</v>
+      </c>
+      <c r="L176">
         <v>0</v>
       </c>
       <c r="O176">
         <f>SUM(C176:N176)</f>
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="B177">
         <v>4</v>
@@ -7943,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -7952,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="G177">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -7961,31 +9092,37 @@
         <v>0</v>
       </c>
       <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
         <v>0</v>
       </c>
       <c r="O177">
         <f>SUM(C177:N177)</f>
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B178">
         <v>4</v>
       </c>
       <c r="C178">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E178">
         <v>0</v>
       </c>
       <c r="F178">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -7997,16 +9134,22 @@
         <v>0</v>
       </c>
       <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
         <v>0</v>
       </c>
       <c r="O178">
         <f>SUM(C178:N178)</f>
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B179">
         <v>4</v>
@@ -8024,25 +9167,31 @@
         <v>0</v>
       </c>
       <c r="G179">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="H179">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
         <v>0</v>
       </c>
       <c r="O179">
         <f>SUM(C179:N179)</f>
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="B180">
         <v>4</v>
@@ -8066,19 +9215,25 @@
         <v>0</v>
       </c>
       <c r="I180">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>70</v>
+      </c>
+      <c r="L180">
         <v>0</v>
       </c>
       <c r="O180">
         <f>SUM(C180:N180)</f>
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -8087,16 +9242,16 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E181">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -8105,16 +9260,22 @@
         <v>0</v>
       </c>
       <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
         <v>0</v>
       </c>
       <c r="O181">
         <f>SUM(C181:N181)</f>
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B182">
         <v>4</v>
@@ -8123,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -8138,19 +9299,25 @@
         <v>0</v>
       </c>
       <c r="I182">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
         <v>0</v>
       </c>
       <c r="O182">
         <f>SUM(C182:N182)</f>
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="B183">
         <v>4</v>
@@ -8162,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -8177,16 +9344,22 @@
         <v>0</v>
       </c>
       <c r="J183">
+        <v>40</v>
+      </c>
+      <c r="K183">
+        <v>24</v>
+      </c>
+      <c r="L183">
         <v>0</v>
       </c>
       <c r="O183">
         <f>SUM(C183:N183)</f>
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="B184">
         <v>4</v>
@@ -8201,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -8213,16 +9386,22 @@
         <v>0</v>
       </c>
       <c r="J184">
+        <v>40</v>
+      </c>
+      <c r="K184">
+        <v>24</v>
+      </c>
+      <c r="L184">
         <v>0</v>
       </c>
       <c r="O184">
         <f>SUM(C184:N184)</f>
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="B185">
         <v>4</v>
@@ -8237,34 +9416,40 @@
         <v>0</v>
       </c>
       <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>24</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
         <v>40</v>
-      </c>
-      <c r="G185">
-        <v>0</v>
-      </c>
-      <c r="H185">
-        <v>0</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185">
-        <v>0</v>
       </c>
       <c r="O185">
         <f>SUM(C185:N185)</f>
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>232</v>
+        <v>62</v>
       </c>
       <c r="B186">
         <v>4</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -8285,22 +9470,28 @@
         <v>0</v>
       </c>
       <c r="J186">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
       </c>
       <c r="O186">
         <f>SUM(C186:N186)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>231</v>
+        <v>63</v>
       </c>
       <c r="B187">
         <v>4</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -8321,16 +9512,22 @@
         <v>0</v>
       </c>
       <c r="J187">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
       </c>
       <c r="O187">
         <f>SUM(C187:N187)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B188">
         <v>4</v>
@@ -8339,14 +9536,14 @@
         <v>0</v>
       </c>
       <c r="D188">
+        <v>24</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
         <v>36</v>
       </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-      <c r="F188">
-        <v>0</v>
-      </c>
       <c r="G188">
         <v>0</v>
       </c>
@@ -8357,16 +9554,22 @@
         <v>0</v>
       </c>
       <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
         <v>0</v>
       </c>
       <c r="O188">
         <f>SUM(C188:N188)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="B189">
         <v>4</v>
@@ -8375,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="D189">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -8387,22 +9590,28 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I189">
         <v>0</v>
       </c>
       <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
         <v>0</v>
       </c>
       <c r="O189">
         <f>SUM(C189:N189)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="B190">
         <v>4</v>
@@ -8414,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -8423,22 +9632,28 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I190">
         <v>0</v>
       </c>
       <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
         <v>0</v>
       </c>
       <c r="O190">
         <f>SUM(C190:N190)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="B191">
         <v>4</v>
@@ -8450,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -8465,16 +9680,22 @@
         <v>0</v>
       </c>
       <c r="J191">
+        <v>60</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
         <v>0</v>
       </c>
       <c r="O191">
         <f>SUM(C191:N191)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="B192">
         <v>4</v>
@@ -8489,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -8502,15 +9723,21 @@
       </c>
       <c r="J192">
         <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>60</v>
       </c>
       <c r="O192">
         <f>SUM(C192:N192)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="B193">
         <v>4</v>
@@ -8519,13 +9746,13 @@
         <v>0</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E193">
         <v>0</v>
       </c>
       <c r="F193">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -8537,16 +9764,22 @@
         <v>0</v>
       </c>
       <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
         <v>0</v>
       </c>
       <c r="O193">
         <f>SUM(C193:N193)</f>
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="B194">
         <v>4</v>
@@ -8561,10 +9794,10 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -8573,16 +9806,22 @@
         <v>0</v>
       </c>
       <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
         <v>0</v>
       </c>
       <c r="O194">
         <f>SUM(C194:N194)</f>
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="B195">
         <v>4</v>
@@ -8597,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -8609,22 +9848,28 @@
         <v>0</v>
       </c>
       <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>55</v>
+      </c>
+      <c r="L195">
         <v>0</v>
       </c>
       <c r="O195">
         <f>SUM(C195:N195)</f>
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="B196">
         <v>4</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -8633,10 +9878,10 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G196">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -8645,16 +9890,22 @@
         <v>0</v>
       </c>
       <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
         <v>0</v>
       </c>
       <c r="O196">
         <f>SUM(C196:N196)</f>
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="B197">
         <v>4</v>
@@ -8672,25 +9923,31 @@
         <v>0</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I197">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
         <v>0</v>
       </c>
       <c r="O197">
         <f>SUM(C197:N197)</f>
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="B198">
         <v>4</v>
@@ -8702,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -8711,22 +9968,28 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I198">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J198">
         <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>20</v>
       </c>
       <c r="O198">
         <f>SUM(C198:N198)</f>
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="B199">
         <v>4</v>
@@ -8738,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -8747,22 +10010,28 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I199">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J199">
         <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>20</v>
       </c>
       <c r="O199">
         <f>SUM(C199:N199)</f>
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B200">
         <v>4</v>
@@ -8786,19 +10055,25 @@
         <v>0</v>
       </c>
       <c r="I200">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
         <v>0</v>
       </c>
       <c r="O200">
         <f>SUM(C200:N200)</f>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="B201">
         <v>4</v>
@@ -8810,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -8819,22 +10094,28 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I201">
         <v>0</v>
       </c>
       <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>50</v>
+      </c>
+      <c r="L201">
         <v>0</v>
       </c>
       <c r="O201">
         <f>SUM(C201:N201)</f>
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="B202">
         <v>4</v>
@@ -8846,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -8855,22 +10136,28 @@
         <v>0</v>
       </c>
       <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
         <v>20</v>
       </c>
-      <c r="I202">
-        <v>0</v>
-      </c>
       <c r="J202">
         <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>30</v>
       </c>
       <c r="O202">
         <f>SUM(C202:N202)</f>
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="B203">
         <v>4</v>
@@ -8879,10 +10166,10 @@
         <v>0</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E203">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -8891,22 +10178,28 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
       <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
         <v>0</v>
       </c>
       <c r="O203">
         <f>SUM(C203:N203)</f>
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B204">
         <v>4</v>
@@ -8915,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -8930,19 +10223,25 @@
         <v>0</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
         <v>0</v>
       </c>
       <c r="O204">
         <f>SUM(C204:N204)</f>
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="B205">
         <v>4</v>
@@ -8951,10 +10250,10 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -8969,16 +10268,22 @@
         <v>0</v>
       </c>
       <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
         <v>0</v>
       </c>
       <c r="O205">
         <f>SUM(C205:N205)</f>
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B206">
         <v>4</v>
@@ -8993,10 +10298,10 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G206">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -9005,16 +10310,22 @@
         <v>0</v>
       </c>
       <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
         <v>0</v>
       </c>
       <c r="O206">
         <f>SUM(C206:N206)</f>
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="B207">
         <v>4</v>
@@ -9026,7 +10337,7 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -9038,25 +10349,31 @@
         <v>0</v>
       </c>
       <c r="I207">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>30</v>
+      </c>
+      <c r="L207">
         <v>0</v>
       </c>
       <c r="O207">
         <f>SUM(C207:N207)</f>
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="B208">
         <v>4</v>
       </c>
       <c r="C208">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -9065,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -9077,16 +10394,22 @@
         <v>0</v>
       </c>
       <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
         <v>0</v>
       </c>
       <c r="O208">
         <f>SUM(C208:N208)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>233</v>
+        <v>98</v>
       </c>
       <c r="B209">
         <v>4</v>
@@ -9095,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -9113,16 +10436,22 @@
         <v>0</v>
       </c>
       <c r="J209">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
       </c>
       <c r="O209">
         <f>SUM(C209:N209)</f>
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="B210">
         <v>4</v>
@@ -9131,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -9146,19 +10475,25 @@
         <v>0</v>
       </c>
       <c r="I210">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
         <v>0</v>
       </c>
       <c r="O210">
         <f>SUM(C210:N210)</f>
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="B211">
         <v>4</v>
@@ -9167,10 +10502,10 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -9185,16 +10520,22 @@
         <v>0</v>
       </c>
       <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
         <v>0</v>
       </c>
       <c r="O211">
         <f>SUM(C211:N211)</f>
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B212">
         <v>4</v>
@@ -9206,7 +10547,7 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -9221,16 +10562,22 @@
         <v>0</v>
       </c>
       <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
         <v>0</v>
       </c>
       <c r="O212">
         <f>SUM(C212:N212)</f>
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="B213">
         <v>4</v>
@@ -9245,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -9254,19 +10601,25 @@
         <v>0</v>
       </c>
       <c r="I213">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
         <v>0</v>
       </c>
       <c r="O213">
         <f>SUM(C213:N213)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="B214">
         <v>4</v>
@@ -9281,7 +10634,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -9290,19 +10643,25 @@
         <v>0</v>
       </c>
       <c r="I214">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
         <v>0</v>
       </c>
       <c r="O214">
         <f>SUM(C214:N214)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="B215">
         <v>4</v>
@@ -9311,13 +10670,13 @@
         <v>0</v>
       </c>
       <c r="D215">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E215">
         <v>0</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -9329,16 +10688,22 @@
         <v>0</v>
       </c>
       <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
         <v>0</v>
       </c>
       <c r="O215">
         <f>SUM(C215:N215)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="B216">
         <v>4</v>
@@ -9347,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="D216">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -9356,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="G216">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -9365,16 +10730,22 @@
         <v>0</v>
       </c>
       <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
         <v>0</v>
       </c>
       <c r="O216">
         <f>SUM(C216:N216)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="B217">
         <v>4</v>
@@ -9383,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="D217">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -9398,19 +10769,25 @@
         <v>0</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
         <v>0</v>
       </c>
       <c r="O217">
         <f>SUM(C217:N217)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="B218">
         <v>4</v>
@@ -9419,7 +10796,7 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -9434,19 +10811,25 @@
         <v>0</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
         <v>0</v>
       </c>
       <c r="O218">
         <f>SUM(C218:N218)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="B219">
         <v>4</v>
@@ -9470,19 +10853,25 @@
         <v>0</v>
       </c>
       <c r="I219">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>36</v>
+      </c>
+      <c r="L219">
         <v>0</v>
       </c>
       <c r="O219">
         <f>SUM(C219:N219)</f>
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c r="B220">
         <v>4</v>
@@ -9491,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -9509,21 +10898,1158 @@
         <v>0</v>
       </c>
       <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>36</v>
+      </c>
+      <c r="L220">
         <v>0</v>
       </c>
       <c r="O220">
         <f>SUM(C220:N220)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>208</v>
+      </c>
+      <c r="B221">
+        <v>4</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>35</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="O221">
+        <f>SUM(C221:N221)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>243</v>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>35</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <f>SUM(C222:N222)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>141</v>
+      </c>
+      <c r="B223">
+        <v>4</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>12</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>20</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <f>SUM(C223:N223)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>101</v>
+      </c>
+      <c r="B224">
+        <v>4</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>30</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <f>SUM(C224:N224)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>105</v>
+      </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>24</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <f>SUM(C225:N225)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>246</v>
+      </c>
+      <c r="B226">
+        <v>4</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>24</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <f>SUM(C226:N226)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>245</v>
+      </c>
+      <c r="B227">
+        <v>4</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>24</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <f>SUM(C227:N227)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>107</v>
+      </c>
+      <c r="B228">
+        <v>4</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>12</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>12</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <f>SUM(C228:N228)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>109</v>
+      </c>
+      <c r="B229">
+        <v>4</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>12</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>12</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <f>SUM(C229:N229)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>110</v>
+      </c>
+      <c r="B230">
+        <v>4</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>12</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>12</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <f>SUM(C230:N230)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>67</v>
+      </c>
+      <c r="B231">
+        <v>4</v>
+      </c>
+      <c r="C231">
+        <v>20</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <f>SUM(C231:N231)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232">
+        <v>4</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>20</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <f>SUM(C232:N232)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>259</v>
+      </c>
+      <c r="B233">
+        <v>4</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>20</v>
+      </c>
+      <c r="O233">
+        <f>SUM(C233:N233)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>258</v>
+      </c>
+      <c r="B234">
+        <v>4</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>20</v>
+      </c>
+      <c r="O234">
+        <f>SUM(C234:N234)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>248</v>
+      </c>
+      <c r="B235">
+        <v>4</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>15</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <f>SUM(C235:N235)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>210</v>
+      </c>
+      <c r="B236">
+        <v>4</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <v>15</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <f>SUM(C236:N236)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>106</v>
+      </c>
+      <c r="B237">
+        <v>4</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>15</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <f>SUM(C237:N237)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>251</v>
+      </c>
+      <c r="B238">
+        <v>4</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>12</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <f>SUM(C238:N238)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>250</v>
+      </c>
+      <c r="B239">
+        <v>4</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>12</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="O239">
+        <f>SUM(C239:N239)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>249</v>
+      </c>
+      <c r="B240">
+        <v>4</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>12</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="O240">
+        <f>SUM(C240:N240)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>212</v>
+      </c>
+      <c r="B241">
+        <v>4</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>12</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="O241">
+        <f>SUM(C241:N241)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>260</v>
+      </c>
+      <c r="B242">
+        <v>4</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>12</v>
+      </c>
+      <c r="O242">
+        <f>SUM(C242:N242)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>211</v>
+      </c>
+      <c r="B243">
+        <v>4</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>12</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+      <c r="O243">
+        <f>SUM(C243:N243)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>108</v>
+      </c>
+      <c r="B244">
+        <v>4</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>12</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="O244">
+        <f>SUM(C244:N244)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>252</v>
+      </c>
+      <c r="B245">
+        <v>4</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
         <v>5</v>
       </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="O245">
+        <f>SUM(C245:N245)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>213</v>
+      </c>
+      <c r="B246">
+        <v>4</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>5</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="O246">
+        <f>SUM(C246:N246)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>112</v>
+      </c>
+      <c r="B247">
+        <v>4</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>5</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="O247">
+        <f>SUM(C247:N247)</f>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O220">
-    <sortCondition descending="1" ref="B2:B220"/>
-    <sortCondition descending="1" ref="O2:O220"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O247">
+    <sortCondition descending="1" ref="B2:B247"/>
+    <sortCondition descending="1" ref="O2:O247"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="O2:O220" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>